--- a/Zadanie 2 - Sprawozdanie/Wyniki.xlsx
+++ b/Zadanie 2 - Sprawozdanie/Wyniki.xlsx
@@ -4,18 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="108" windowWidth="22980" windowHeight="9552"/>
+    <workbookView xWindow="0" yWindow="108" windowWidth="22980" windowHeight="9552" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="2.1" sheetId="1" r:id="rId1"/>
-    <sheet name="2.2" sheetId="2" r:id="rId2"/>
+    <sheet name="_xltb_storage_" sheetId="3" state="veryHidden" r:id="rId1"/>
+    <sheet name="1.1" sheetId="4" r:id="rId2"/>
+    <sheet name="1.2" sheetId="5" r:id="rId3"/>
+    <sheet name="1.3" sheetId="6" r:id="rId4"/>
+    <sheet name="2.1" sheetId="1" r:id="rId5"/>
+    <sheet name="2.2" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="116">
   <si>
     <t>Żaden piłkarzy posiadających/będących Słaby Balans mają/są Przeciętne Reakcje</t>
   </si>
@@ -240,6 +244,138 @@
   </si>
   <si>
     <t>Standardowa waga</t>
+  </si>
+  <si>
+    <t>XL Toolbox Settings</t>
+  </si>
+  <si>
+    <t>export_preset</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="utf-16"?&gt;_x000D_
+&lt;Preset xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance"&gt;_x000D_
+  &lt;Name&gt;Png, 600 dpi, RGB, Transparent canvas&lt;/Name&gt;_x000D_
+  &lt;Dpi&gt;600&lt;/Dpi&gt;_x000D_
+  &lt;FileType&gt;Png&lt;/FileType&gt;_x000D_
+  &lt;ColorSpace&gt;Rgb&lt;/ColorSpace&gt;_x000D_
+  &lt;Transparency&gt;TransparentCanvas&lt;/Transparency&gt;_x000D_
+  &lt;UseColorProfile&gt;false&lt;/UseColorProfile&gt;_x000D_
+  &lt;ColorProfile&gt;ProPhoto&lt;/ColorProfile&gt;_x000D_
+&lt;/Preset&gt;</t>
+  </si>
+  <si>
+    <t>export_path</t>
+  </si>
+  <si>
+    <t>D:\Nauka\Git\KSR\Zadanie 2 - Sprawozdanie\Rysunki\Badanie2.2.2.png</t>
+  </si>
+  <si>
+    <t>Żaden piłkarzy posiadających/będących Dobra Celność mają/są Przeciętne Ustawianie się</t>
+  </si>
+  <si>
+    <t>Mniej niż ćwierć piłkarzy posiadających/będących Dobra Celność mają/są Przeciętne Ustawianie się</t>
+  </si>
+  <si>
+    <t>Około jedna trzecia piłkarzy posiadających/będących Dobra Celność mają/są Przeciętne Ustawianie się</t>
+  </si>
+  <si>
+    <t>Około połowa piłkarzy posiadających/będących Dobra Celność mają/są Przeciętne Ustawianie się</t>
+  </si>
+  <si>
+    <t>Około dwie trzecie piłkarzy posiadających/będących Dobra Celność mają/są Przeciętne Ustawianie się</t>
+  </si>
+  <si>
+    <t>Większość piłkarzy posiadających/będących Dobra Celność mają/są Przeciętne Ustawianie się</t>
+  </si>
+  <si>
+    <t>Prawie każdy piłkarzy posiadających/będących Dobra Celność mają/są Przeciętne Ustawianie się</t>
+  </si>
+  <si>
+    <t>Mniej niż 100 piłkarzy posiadających/będących Dobra Celność mają/są Przeciętne Ustawianie się</t>
+  </si>
+  <si>
+    <t>Około 250 piłkarzy posiadających/będących Dobra Celność mają/są Przeciętne Ustawianie się</t>
+  </si>
+  <si>
+    <t>Około 500 piłkarzy posiadających/będących Dobra Celność mają/są Przeciętne Ustawianie się</t>
+  </si>
+  <si>
+    <t>Około 750 piłkarzy posiadających/będących Dobra Celność mają/są Przeciętne Ustawianie się</t>
+  </si>
+  <si>
+    <t>Więcej niż 1000 piłkarzy posiadających/będących Dobra Celność mają/są Przeciętne Ustawianie się</t>
+  </si>
+  <si>
+    <t>Żaden piłkarzy posiadających/będących Dobry Dribbling mają/są Przeciętne Przyspieszenie</t>
+  </si>
+  <si>
+    <t>Mniej niż ćwierć piłkarzy posiadających/będących Dobry Dribbling mają/są Przeciętne Przyspieszenie</t>
+  </si>
+  <si>
+    <t>Około jedna trzecia piłkarzy posiadających/będących Dobry Dribbling mają/są Przeciętne Przyspieszenie</t>
+  </si>
+  <si>
+    <t>Około połowa piłkarzy posiadających/będących Dobry Dribbling mają/są Przeciętne Przyspieszenie</t>
+  </si>
+  <si>
+    <t>Około dwie trzecie piłkarzy posiadających/będących Dobry Dribbling mają/są Przeciętne Przyspieszenie</t>
+  </si>
+  <si>
+    <t>Większość piłkarzy posiadających/będących Dobry Dribbling mają/są Przeciętne Przyspieszenie</t>
+  </si>
+  <si>
+    <t>Prawie każdy piłkarzy posiadających/będących Dobry Dribbling mają/są Przeciętne Przyspieszenie</t>
+  </si>
+  <si>
+    <t>Mniej niż 100 piłkarzy posiadających/będących Dobry Dribbling mają/są Przeciętne Przyspieszenie</t>
+  </si>
+  <si>
+    <t>Około 250 piłkarzy posiadających/będących Dobry Dribbling mają/są Przeciętne Przyspieszenie</t>
+  </si>
+  <si>
+    <t>Około 500 piłkarzy posiadających/będących Dobry Dribbling mają/są Przeciętne Przyspieszenie</t>
+  </si>
+  <si>
+    <t>Około 750 piłkarzy posiadających/będących Dobry Dribbling mają/są Przeciętne Przyspieszenie</t>
+  </si>
+  <si>
+    <t>Więcej niż 1000 piłkarzy posiadających/będących Dobry Dribbling mają/są Przeciętne Przyspieszenie</t>
+  </si>
+  <si>
+    <t>Żaden piłkarzy posiadających/będących Młody Wiek mają/są Postawna Waga</t>
+  </si>
+  <si>
+    <t>Mniej niż ćwierć piłkarzy posiadających/będących Młody Wiek mają/są Postawna Waga</t>
+  </si>
+  <si>
+    <t>Około jedna trzecia piłkarzy posiadających/będących Młody Wiek mają/są Postawna Waga</t>
+  </si>
+  <si>
+    <t>Około połowa piłkarzy posiadających/będących Młody Wiek mają/są Postawna Waga</t>
+  </si>
+  <si>
+    <t>Około dwie trzecie piłkarzy posiadających/będących Młody Wiek mają/są Postawna Waga</t>
+  </si>
+  <si>
+    <t>Większość piłkarzy posiadających/będących Młody Wiek mają/są Postawna Waga</t>
+  </si>
+  <si>
+    <t>Prawie każdy piłkarzy posiadających/będących Młody Wiek mają/są Postawna Waga</t>
+  </si>
+  <si>
+    <t>Mniej niż 100 piłkarzy posiadających/będących Młody Wiek mają/są Postawna Waga</t>
+  </si>
+  <si>
+    <t>Około 250 piłkarzy posiadających/będących Młody Wiek mają/są Postawna Waga</t>
+  </si>
+  <si>
+    <t>Około 500 piłkarzy posiadających/będących Młody Wiek mają/są Postawna Waga</t>
+  </si>
+  <si>
+    <t>Około 750 piłkarzy posiadających/będących Młody Wiek mają/są Postawna Waga</t>
+  </si>
+  <si>
+    <t>Więcej niż 1000 piłkarzy posiadających/będących Młody Wiek mają/są Postawna Waga</t>
   </si>
 </sst>
 </file>
@@ -742,9 +878,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - akcent 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -829,6 +969,523 @@
               <a:rPr lang="pl-PL" sz="1400">
                 <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
               </a:rPr>
+              <a:t>X piłkarzy posiadajcych dobrą celność ma Przeciętne Ustawianie</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1400" baseline="0">
+                <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+              </a:rPr>
+              <a:t> się</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.1'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.1'!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.46800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.1'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.1'!$B$2:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Żaden</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mniej niż 1/4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Około 1/3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Około 1/2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Około 2/3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Większość</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Prawie każdy</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Mniej niż 100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Około 250</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Około 500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Około 750</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Więcej niż 1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.1'!$H$2:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.98699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.98699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.2E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.1'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.1'!$B$2:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Żaden</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mniej niż 1/4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Około 1/3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Około 1/2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Około 2/3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Większość</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Prawie każdy</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Mniej niż 100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Około 250</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Około 500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Około 750</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Więcej niż 1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.1'!$I$2:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.3E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="674494976"/>
+        <c:axId val="145639680"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="674494976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900">
+                    <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Miara podsumowania</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL" sz="900">
+                  <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="145639680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="145639680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900">
+                    <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="900">
+                    <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+                  </a:rPr>
+                  <a:t>Wartość miary</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="674494976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr>
+              <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400">
+                <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1400">
+                <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+              </a:rPr>
               <a:t>Około 2/3 piłkarzy ma Przeciętne Reakcje</a:t>
             </a:r>
           </a:p>
@@ -925,7 +1582,7 @@
                   <c:v>0.77600000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.77600000000000002</c:v>
+                  <c:v>0.16300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -1044,7 +1701,7 @@
                   <c:v>0.80600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.80600000000000005</c:v>
+                  <c:v>0.192</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -1092,6 +1749,32 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900">
+                    <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Miara podsumowania</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL" sz="900">
+                  <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1123,6 +1806,29 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900">
+                    <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="900">
+                    <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+                  </a:rPr>
+                  <a:t>Wartość miary</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -1173,7 +1879,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
@@ -1298,7 +2004,7 @@
                   <c:v>0.77600000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.77600000000000002</c:v>
+                  <c:v>0.16300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -1417,7 +2123,7 @@
                   <c:v>0.80600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.80600000000000005</c:v>
+                  <c:v>0.192</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -1465,6 +2171,32 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900">
+                    <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Miara podsumowania</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL" sz="900">
+                  <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1496,6 +2228,29 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900">
+                    <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="900">
+                    <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+                  </a:rPr>
+                  <a:t>Wartość miary</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -1513,498 +2268,6 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="139435008"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr>
-              <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400">
-                <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pl-PL" sz="1400">
-                <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
-              </a:rPr>
-              <a:t>X piłkarzy ma Standardową</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pl-PL" sz="1400" baseline="0">
-                <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
-              </a:rPr>
-              <a:t> Wagę</a:t>
-            </a:r>
-            <a:endParaRPr lang="pl-PL" sz="1400">
-              <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Mniej niż 1/4 - Niski wzrost</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="002060"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="002060"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="002060"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'2.2'!$C$1:$M$1</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>T1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>T2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>T3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>T4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>T5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>T6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>T7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>T8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>T9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>T10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>T11</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'2.2'!$C$3:$M$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.48199999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.8000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.8000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.96599999999999997</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Mniej niż 1/4 - brak kwalifikatora</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'2.2'!$C$1:$M$1</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>T1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>T2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>T3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>T4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>T5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>T6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>T7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>T8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>T9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>T10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>T11</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'2.2'!$C$17:$M$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>9.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.48199999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.51800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.51800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.99399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Około 1/3 - brak kwalifikatora</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'2.2'!$C$1:$M$1</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>T1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>T2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>T3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>T4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>T5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>T6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>T7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>T8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>T9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>T10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>T11</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'2.2'!$C$18:$M$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.89400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.48199999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.51800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.51800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.99399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="158572032"/>
-        <c:axId val="593320704"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="158572032"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr>
-                <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="593320704"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="593320704"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr>
-                <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="158572032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2094,6 +2357,544 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
+            <c:v>Mniej niż 1/4 - Niski wzrost</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2.2'!$C$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>T1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>T3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>T4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>T5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>T6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>T7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>T8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>T9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>T10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>T11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2.2'!$C$3:$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.96599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Mniej niż 1/4 - brak kwalifikatora</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2.2'!$C$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>T1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>T3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>T4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>T5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>T6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>T7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>T8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>T9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>T10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>T11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2.2'!$C$17:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>9.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Około 1/3 - brak kwalifikatora</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2.2'!$C$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>T1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>T3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>T4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>T5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>T6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>T7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>T8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>T9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>T10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>T11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2.2'!$C$18:$M$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.89400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="158572032"/>
+        <c:axId val="593320704"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="158572032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900">
+                    <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="900">
+                    <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+                  </a:rPr>
+                  <a:t>Miara podsumowania</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="593320704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="593320704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900">
+                    <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="900">
+                    <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+                  </a:rPr>
+                  <a:t>Wartość miary</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="158572032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr>
+              <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400">
+                <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1400">
+                <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+              </a:rPr>
+              <a:t>X piłkarzy ma Standardową</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1400" baseline="0">
+                <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+              </a:rPr>
+              <a:t> Wagę</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL" sz="1400">
+              <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
             <c:v>Mniej niż 100 - Niski wzrost</c:v>
           </c:tx>
           <c:spPr>
@@ -2172,7 +2973,7 @@
                   <c:v>4.8000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.8000000000000001E-2</c:v>
+                  <c:v>0.29299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -2291,7 +3092,7 @@
                   <c:v>0.51800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.51800000000000002</c:v>
+                  <c:v>0.17799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -2339,6 +3140,31 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+                  </a:rPr>
+                  <a:t>Miara podsumowania</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL" sz="900">
+                  <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2370,6 +3196,29 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900">
+                    <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="900">
+                    <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+                  </a:rPr>
+                  <a:t>Wartość miary</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -2421,6 +3270,43 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5781000</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>24720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2487,7 +3373,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2843,10 +3729,1684 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="87.21875" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="D2">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="E2">
+        <v>0.151</v>
+      </c>
+      <c r="F2">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0.9</v>
+      </c>
+      <c r="I2">
+        <v>0.95</v>
+      </c>
+      <c r="J2">
+        <v>0.998</v>
+      </c>
+      <c r="K2">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="L2">
+        <v>0.999</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="E3">
+        <v>0.151</v>
+      </c>
+      <c r="F3">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0.65</v>
+      </c>
+      <c r="I3">
+        <v>0.7</v>
+      </c>
+      <c r="J3">
+        <v>0.998</v>
+      </c>
+      <c r="K3">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="L3">
+        <v>0.999</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="E4">
+        <v>0.151</v>
+      </c>
+      <c r="F4">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0.8</v>
+      </c>
+      <c r="I4">
+        <v>0.9</v>
+      </c>
+      <c r="J4">
+        <v>0.998</v>
+      </c>
+      <c r="K4">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="L4">
+        <v>0.999</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="E5">
+        <v>0.151</v>
+      </c>
+      <c r="F5">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0.8</v>
+      </c>
+      <c r="I5">
+        <v>0.9</v>
+      </c>
+      <c r="J5">
+        <v>0.998</v>
+      </c>
+      <c r="K5">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="L5">
+        <v>0.999</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="E6">
+        <v>0.151</v>
+      </c>
+      <c r="F6">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0.8</v>
+      </c>
+      <c r="I6">
+        <v>0.9</v>
+      </c>
+      <c r="J6">
+        <v>0.998</v>
+      </c>
+      <c r="K6">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="L6">
+        <v>0.999</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="E7">
+        <v>0.151</v>
+      </c>
+      <c r="F7">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0.8</v>
+      </c>
+      <c r="I7">
+        <v>0.9</v>
+      </c>
+      <c r="J7">
+        <v>0.998</v>
+      </c>
+      <c r="K7">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="L7">
+        <v>0.999</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="E8">
+        <v>0.151</v>
+      </c>
+      <c r="F8">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0.8</v>
+      </c>
+      <c r="I8">
+        <v>0.9</v>
+      </c>
+      <c r="J8">
+        <v>0.998</v>
+      </c>
+      <c r="K8">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="L8">
+        <v>0.999</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="E9">
+        <v>0.151</v>
+      </c>
+      <c r="F9">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0.99</v>
+      </c>
+      <c r="I9">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="J9">
+        <v>0.998</v>
+      </c>
+      <c r="K9">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="L9">
+        <v>0.999</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="E10">
+        <v>0.151</v>
+      </c>
+      <c r="F10">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J10">
+        <v>0.998</v>
+      </c>
+      <c r="K10">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="L10">
+        <v>0.999</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="E11">
+        <v>0.151</v>
+      </c>
+      <c r="F11">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J11">
+        <v>0.998</v>
+      </c>
+      <c r="K11">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="L11">
+        <v>0.999</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="E12">
+        <v>0.151</v>
+      </c>
+      <c r="F12">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J12">
+        <v>0.998</v>
+      </c>
+      <c r="K12">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="L12">
+        <v>0.999</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="E13">
+        <v>0.151</v>
+      </c>
+      <c r="F13">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>6.2E-2</v>
+      </c>
+      <c r="I13">
+        <v>6.3E-2</v>
+      </c>
+      <c r="J13">
+        <v>0.998</v>
+      </c>
+      <c r="K13">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="L13">
+        <v>0.999</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="87" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="D2">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="E2">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="F2">
+        <v>0.127</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0.9</v>
+      </c>
+      <c r="I2">
+        <v>0.95</v>
+      </c>
+      <c r="J2">
+        <v>0.999</v>
+      </c>
+      <c r="K2">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="L2">
+        <v>0.999</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="E3">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="F3">
+        <v>0.127</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0.65</v>
+      </c>
+      <c r="I3">
+        <v>0.7</v>
+      </c>
+      <c r="J3">
+        <v>0.999</v>
+      </c>
+      <c r="K3">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="L3">
+        <v>0.999</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="E4">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="F4">
+        <v>0.127</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0.8</v>
+      </c>
+      <c r="I4">
+        <v>0.9</v>
+      </c>
+      <c r="J4">
+        <v>0.999</v>
+      </c>
+      <c r="K4">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="L4">
+        <v>0.999</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="E5">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="F5">
+        <v>0.127</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0.8</v>
+      </c>
+      <c r="I5">
+        <v>0.9</v>
+      </c>
+      <c r="J5">
+        <v>0.999</v>
+      </c>
+      <c r="K5">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="L5">
+        <v>0.999</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="E6">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="F6">
+        <v>0.127</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0.8</v>
+      </c>
+      <c r="I6">
+        <v>0.9</v>
+      </c>
+      <c r="J6">
+        <v>0.999</v>
+      </c>
+      <c r="K6">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="L6">
+        <v>0.999</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="E7">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="F7">
+        <v>0.127</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0.8</v>
+      </c>
+      <c r="I7">
+        <v>0.9</v>
+      </c>
+      <c r="J7">
+        <v>0.999</v>
+      </c>
+      <c r="K7">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="L7">
+        <v>0.999</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="E8">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="F8">
+        <v>0.127</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0.8</v>
+      </c>
+      <c r="I8">
+        <v>0.9</v>
+      </c>
+      <c r="J8">
+        <v>0.999</v>
+      </c>
+      <c r="K8">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="L8">
+        <v>0.999</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="E9">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="F9">
+        <v>0.127</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0.99</v>
+      </c>
+      <c r="I9">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="J9">
+        <v>0.999</v>
+      </c>
+      <c r="K9">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="L9">
+        <v>0.999</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10">
+        <v>0.189</v>
+      </c>
+      <c r="D10">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="E10">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="F10">
+        <v>0.127</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J10">
+        <v>0.999</v>
+      </c>
+      <c r="K10">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="L10">
+        <v>0.999</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="E11">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="F11">
+        <v>0.127</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J11">
+        <v>0.999</v>
+      </c>
+      <c r="K11">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="L11">
+        <v>0.999</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="E12">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="F12">
+        <v>0.127</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J12">
+        <v>0.999</v>
+      </c>
+      <c r="K12">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="L12">
+        <v>0.999</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="E13">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="F13">
+        <v>0.127</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>6.2E-2</v>
+      </c>
+      <c r="I13">
+        <v>6.3E-2</v>
+      </c>
+      <c r="J13">
+        <v>0.999</v>
+      </c>
+      <c r="K13">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="L13">
+        <v>0.999</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="79" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2">
+        <v>0.253</v>
+      </c>
+      <c r="D2">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="E2">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="F2">
+        <v>0.02</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0.9</v>
+      </c>
+      <c r="I2">
+        <v>0.95</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="E3">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="F3">
+        <v>0.02</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0.65</v>
+      </c>
+      <c r="I3">
+        <v>0.7</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="E4">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="F4">
+        <v>0.02</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0.8</v>
+      </c>
+      <c r="I4">
+        <v>0.9</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="E5">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="F5">
+        <v>0.02</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0.8</v>
+      </c>
+      <c r="I5">
+        <v>0.9</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="E6">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="F6">
+        <v>0.02</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0.8</v>
+      </c>
+      <c r="I6">
+        <v>0.9</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="E7">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="F7">
+        <v>0.02</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0.8</v>
+      </c>
+      <c r="I7">
+        <v>0.9</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="E8">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="F8">
+        <v>0.02</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0.8</v>
+      </c>
+      <c r="I8">
+        <v>0.9</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="E9">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="F9">
+        <v>0.02</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0.99</v>
+      </c>
+      <c r="I9">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="E10">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="F10">
+        <v>0.02</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="D11">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="E11">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="F11">
+        <v>0.02</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="E12">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="F12">
+        <v>0.02</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="E13">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="F13">
+        <v>0.02</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>6.2E-2</v>
+      </c>
+      <c r="I13">
+        <v>6.3E-2</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2910,7 +5470,7 @@
         <v>0.77600000000000002</v>
       </c>
       <c r="F2">
-        <v>0.77600000000000002</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -2951,7 +5511,7 @@
         <v>0.77600000000000002</v>
       </c>
       <c r="F3">
-        <v>0.77600000000000002</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -2992,7 +5552,7 @@
         <v>0.77600000000000002</v>
       </c>
       <c r="F4">
-        <v>0.77600000000000002</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -3033,7 +5593,7 @@
         <v>0.77600000000000002</v>
       </c>
       <c r="F5">
-        <v>0.77600000000000002</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -3074,7 +5634,7 @@
         <v>0.77600000000000002</v>
       </c>
       <c r="F6" s="1">
-        <v>0.77600000000000002</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -3115,7 +5675,7 @@
         <v>0.77600000000000002</v>
       </c>
       <c r="F7">
-        <v>0.77600000000000002</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -3156,7 +5716,7 @@
         <v>0.77600000000000002</v>
       </c>
       <c r="F8">
-        <v>0.77600000000000002</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -3197,7 +5757,7 @@
         <v>0.77600000000000002</v>
       </c>
       <c r="F9">
-        <v>0.77600000000000002</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -3238,7 +5798,7 @@
         <v>0.77600000000000002</v>
       </c>
       <c r="F10">
-        <v>0.77600000000000002</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -3279,7 +5839,7 @@
         <v>0.77600000000000002</v>
       </c>
       <c r="F11" s="1">
-        <v>0.77600000000000002</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
@@ -3320,7 +5880,7 @@
         <v>0.77600000000000002</v>
       </c>
       <c r="F12">
-        <v>0.77600000000000002</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -3348,40 +5908,40 @@
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
         <v>0.19400000000000001</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="3">
         <v>0.77600000000000002</v>
       </c>
-      <c r="F13" s="1">
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1">
+      <c r="F13" s="3">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3">
         <v>6.2E-2</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="3">
         <v>6.3E-2</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="3">
         <v>0.999</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="3">
         <v>0.92800000000000005</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="3">
         <v>0.999</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3407,7 +5967,7 @@
         <v>0.80600000000000005</v>
       </c>
       <c r="F16">
-        <v>0.80600000000000005</v>
+        <v>0.192</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -3448,7 +6008,7 @@
         <v>0.80600000000000005</v>
       </c>
       <c r="F17">
-        <v>0.80600000000000005</v>
+        <v>0.192</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -3489,7 +6049,7 @@
         <v>0.80600000000000005</v>
       </c>
       <c r="F18">
-        <v>0.80600000000000005</v>
+        <v>0.192</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -3530,7 +6090,7 @@
         <v>0.80600000000000005</v>
       </c>
       <c r="F19">
-        <v>0.80600000000000005</v>
+        <v>0.192</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -3571,7 +6131,7 @@
         <v>0.80600000000000005</v>
       </c>
       <c r="F20" s="1">
-        <v>0.80600000000000005</v>
+        <v>0.192</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
@@ -3612,7 +6172,7 @@
         <v>0.80600000000000005</v>
       </c>
       <c r="F21">
-        <v>0.80600000000000005</v>
+        <v>0.192</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -3653,7 +6213,7 @@
         <v>0.80600000000000005</v>
       </c>
       <c r="F22">
-        <v>0.80600000000000005</v>
+        <v>0.192</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -3694,7 +6254,7 @@
         <v>0.80600000000000005</v>
       </c>
       <c r="F23">
-        <v>0.80600000000000005</v>
+        <v>0.192</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -3735,7 +6295,7 @@
         <v>0.80600000000000005</v>
       </c>
       <c r="F24">
-        <v>0.80600000000000005</v>
+        <v>0.192</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -3763,40 +6323,40 @@
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="1">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1">
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
         <v>0.19400000000000001</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="3">
         <v>0.80600000000000005</v>
       </c>
-      <c r="F25" s="1">
-        <v>0.80600000000000005</v>
-      </c>
-      <c r="G25" s="1">
-        <v>1</v>
-      </c>
-      <c r="H25" s="1">
+      <c r="F25" s="3">
+        <v>0.192</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3">
         <v>0.98699999999999999</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="3">
         <v>0.99399999999999999</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="3">
         <v>0.999</v>
       </c>
-      <c r="K25" s="1">
-        <v>0</v>
-      </c>
-      <c r="L25" s="1">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3">
         <v>0.99399999999999999</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3817,7 +6377,7 @@
         <v>0.80600000000000005</v>
       </c>
       <c r="F26">
-        <v>0.80600000000000005</v>
+        <v>0.192</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -3858,7 +6418,7 @@
         <v>0.80600000000000005</v>
       </c>
       <c r="F27" s="1">
-        <v>0.80600000000000005</v>
+        <v>0.192</v>
       </c>
       <c r="G27" s="1">
         <v>1</v>
@@ -3889,12 +6449,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3958,7 +6518,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="F2">
-        <v>4.8000000000000001E-2</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -3999,7 +6559,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="F3" s="1">
-        <v>4.8000000000000001E-2</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -4040,7 +6600,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="F4">
-        <v>4.8000000000000001E-2</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -4081,7 +6641,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="F5">
-        <v>4.8000000000000001E-2</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -4122,7 +6682,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="F6">
-        <v>4.8000000000000001E-2</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -4163,7 +6723,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="F7">
-        <v>4.8000000000000001E-2</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -4204,7 +6764,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="F8">
-        <v>4.8000000000000001E-2</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -4245,7 +6805,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="F9" s="1">
-        <v>4.8000000000000001E-2</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
@@ -4286,7 +6846,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="F10">
-        <v>4.8000000000000001E-2</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -4327,7 +6887,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="F11">
-        <v>4.8000000000000001E-2</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -4368,7 +6928,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="F12">
-        <v>4.8000000000000001E-2</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -4409,7 +6969,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="F13">
-        <v>4.8000000000000001E-2</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -4455,7 +7015,7 @@
         <v>0.51800000000000002</v>
       </c>
       <c r="F16">
-        <v>0.51800000000000002</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -4483,40 +7043,40 @@
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="3">
         <v>9.4E-2</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="3">
         <v>0.48199999999999998</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="3">
         <v>0.51800000000000002</v>
       </c>
-      <c r="F17" s="1">
-        <v>0.51800000000000002</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1">
+      <c r="F17" s="3">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3">
         <v>0.65</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="3">
         <v>0.7</v>
       </c>
-      <c r="J17" s="1">
-        <v>1</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0</v>
-      </c>
-      <c r="L17" s="1">
+      <c r="J17" s="3">
+        <v>1</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>0.99399999999999999</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="3">
         <v>1</v>
       </c>
     </row>
@@ -4524,40 +7084,40 @@
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="3">
         <v>0.89400000000000002</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="3">
         <v>0.48199999999999998</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="3">
         <v>0.51800000000000002</v>
       </c>
-      <c r="F18" s="1">
-        <v>0.51800000000000002</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1">
+      <c r="F18" s="3">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3">
         <v>0.8</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="3">
         <v>0.9</v>
       </c>
-      <c r="J18" s="1">
-        <v>1</v>
-      </c>
-      <c r="K18" s="1">
-        <v>0</v>
-      </c>
-      <c r="L18" s="1">
+      <c r="J18" s="3">
+        <v>1</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>0.99399999999999999</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="3">
         <v>1</v>
       </c>
     </row>
@@ -4578,7 +7138,7 @@
         <v>0.51800000000000002</v>
       </c>
       <c r="F19">
-        <v>0.51800000000000002</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -4619,7 +7179,7 @@
         <v>0.51800000000000002</v>
       </c>
       <c r="F20">
-        <v>0.51800000000000002</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -4660,7 +7220,7 @@
         <v>0.51800000000000002</v>
       </c>
       <c r="F21">
-        <v>0.51800000000000002</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -4701,7 +7261,7 @@
         <v>0.51800000000000002</v>
       </c>
       <c r="F22">
-        <v>0.51800000000000002</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -4742,7 +7302,7 @@
         <v>0.51800000000000002</v>
       </c>
       <c r="F23">
-        <v>0.51800000000000002</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -4783,7 +7343,7 @@
         <v>0.51800000000000002</v>
       </c>
       <c r="F24">
-        <v>0.51800000000000002</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -4824,7 +7384,7 @@
         <v>0.51800000000000002</v>
       </c>
       <c r="F25">
-        <v>0.51800000000000002</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -4865,7 +7425,7 @@
         <v>0.51800000000000002</v>
       </c>
       <c r="F26">
-        <v>0.51800000000000002</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -4893,40 +7453,40 @@
       <c r="A27" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1">
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3">
         <v>0.48199999999999998</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="3">
         <v>0.51800000000000002</v>
       </c>
-      <c r="F27" s="1">
-        <v>0.51800000000000002</v>
-      </c>
-      <c r="G27" s="1">
-        <v>1</v>
-      </c>
-      <c r="H27" s="1">
+      <c r="F27" s="3">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3">
         <v>6.2E-2</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="3">
         <v>6.3E-2</v>
       </c>
-      <c r="J27" s="1">
-        <v>1</v>
-      </c>
-      <c r="K27" s="1">
-        <v>0</v>
-      </c>
-      <c r="L27" s="1">
+      <c r="J27" s="3">
+        <v>1</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>0.99399999999999999</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M27" s="3">
         <v>1</v>
       </c>
     </row>

--- a/Zadanie 2 - Sprawozdanie/Wyniki.xlsx
+++ b/Zadanie 2 - Sprawozdanie/Wyniki.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="108" windowWidth="22980" windowHeight="9552" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="108" windowWidth="22980" windowHeight="9552" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="_xltb_storage_" sheetId="3" state="veryHidden" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="1.3" sheetId="6" r:id="rId4"/>
     <sheet name="2.1" sheetId="1" r:id="rId5"/>
     <sheet name="2.2" sheetId="2" r:id="rId6"/>
+    <sheet name="3" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="168">
   <si>
     <t>Żaden piłkarzy posiadających/będących Słaby Balans mają/są Przeciętne Reakcje</t>
   </si>
@@ -267,9 +268,6 @@
     <t>export_path</t>
   </si>
   <si>
-    <t>D:\Nauka\Git\KSR\Zadanie 2 - Sprawozdanie\Rysunki\Badanie2.2.2.png</t>
-  </si>
-  <si>
     <t>Żaden piłkarzy posiadających/będących Dobra Celność mają/są Przeciętne Ustawianie się</t>
   </si>
   <si>
@@ -376,6 +374,165 @@
   </si>
   <si>
     <t>Więcej niż 1000 piłkarzy posiadających/będących Młody Wiek mają/są Postawna Waga</t>
+  </si>
+  <si>
+    <t>Żaden piłkarzy posiadających/będących Wysoki Wzrost mają/są Słaba Kontrola piłki</t>
+  </si>
+  <si>
+    <t>Mniej niż ćwierć piłkarzy posiadających/będących Wysoki Wzrost mają/są Słaba Kontrola piłki</t>
+  </si>
+  <si>
+    <t>Około jedna trzecia piłkarzy posiadających/będących Wysoki Wzrost mają/są Słaba Kontrola piłki</t>
+  </si>
+  <si>
+    <t>Około połowa piłkarzy posiadających/będących Wysoki Wzrost mają/są Słaba Kontrola piłki</t>
+  </si>
+  <si>
+    <t>Około dwie trzecie piłkarzy posiadających/będących Wysoki Wzrost mają/są Słaba Kontrola piłki</t>
+  </si>
+  <si>
+    <t>Większość piłkarzy posiadających/będących Wysoki Wzrost mają/są Słaba Kontrola piłki</t>
+  </si>
+  <si>
+    <t>Prawie każdy piłkarzy posiadających/będących Wysoki Wzrost mają/są Słaba Kontrola piłki</t>
+  </si>
+  <si>
+    <t>Mniej niż 100 piłkarzy posiadających/będących Wysoki Wzrost mają/są Słaba Kontrola piłki</t>
+  </si>
+  <si>
+    <t>Około 250 piłkarzy posiadających/będących Wysoki Wzrost mają/są Słaba Kontrola piłki</t>
+  </si>
+  <si>
+    <t>Około 500 piłkarzy posiadających/będących Wysoki Wzrost mają/są Słaba Kontrola piłki</t>
+  </si>
+  <si>
+    <t>Około 750 piłkarzy posiadających/będących Wysoki Wzrost mają/są Słaba Kontrola piłki</t>
+  </si>
+  <si>
+    <t>Więcej niż 1000 piłkarzy posiadających/będących Wysoki Wzrost mają/są Słaba Kontrola piłki</t>
+  </si>
+  <si>
+    <t>Żaden piłkarzy posiadających/będących Wysoki Wzrost mają/są Słaba Celność</t>
+  </si>
+  <si>
+    <t>Mniej niż ćwierć piłkarzy posiadających/będących Wysoki Wzrost mają/są Słaba Celność</t>
+  </si>
+  <si>
+    <t>Około jedna trzecia piłkarzy posiadających/będących Wysoki Wzrost mają/są Słaba Celność</t>
+  </si>
+  <si>
+    <t>Około połowa piłkarzy posiadających/będących Wysoki Wzrost mają/są Słaba Celność</t>
+  </si>
+  <si>
+    <t>Około dwie trzecie piłkarzy posiadających/będących Wysoki Wzrost mają/są Słaba Celność</t>
+  </si>
+  <si>
+    <t>Większość piłkarzy posiadających/będących Wysoki Wzrost mają/są Słaba Celność</t>
+  </si>
+  <si>
+    <t>Prawie każdy piłkarzy posiadających/będących Wysoki Wzrost mają/są Słaba Celność</t>
+  </si>
+  <si>
+    <t>Mniej niż 100 piłkarzy posiadających/będących Wysoki Wzrost mają/są Słaba Celność</t>
+  </si>
+  <si>
+    <t>Około 250 piłkarzy posiadających/będących Wysoki Wzrost mają/są Słaba Celność</t>
+  </si>
+  <si>
+    <t>Około 500 piłkarzy posiadających/będących Wysoki Wzrost mają/są Słaba Celność</t>
+  </si>
+  <si>
+    <t>Około 750 piłkarzy posiadających/będących Wysoki Wzrost mają/są Słaba Celność</t>
+  </si>
+  <si>
+    <t>Więcej niż 1000 piłkarzy posiadających/będących Wysoki Wzrost mają/są Słaba Celność</t>
+  </si>
+  <si>
+    <t>Żaden piłkarzy posiadających/będących Wysoki Wzrost mają/są Słaba Celność oraz Słaba Kontrola piłki</t>
+  </si>
+  <si>
+    <t>Mniej niż ćwierć piłkarzy posiadających/będących Wysoki Wzrost mają/są Słaba Celność oraz Słaba Kontrola piłki</t>
+  </si>
+  <si>
+    <t>Około jedna trzecia piłkarzy posiadających/będących Wysoki Wzrost mają/są Słaba Celność oraz Słaba Kontrola piłki</t>
+  </si>
+  <si>
+    <t>Około połowa piłkarzy posiadających/będących Wysoki Wzrost mają/są Słaba Celność oraz Słaba Kontrola piłki</t>
+  </si>
+  <si>
+    <t>Około dwie trzecie piłkarzy posiadających/będących Wysoki Wzrost mają/są Słaba Celność oraz Słaba Kontrola piłki</t>
+  </si>
+  <si>
+    <t>Większość piłkarzy posiadających/będących Wysoki Wzrost mają/są Słaba Celność oraz Słaba Kontrola piłki</t>
+  </si>
+  <si>
+    <t>Prawie każdy piłkarzy posiadających/będących Wysoki Wzrost mają/są Słaba Celność oraz Słaba Kontrola piłki</t>
+  </si>
+  <si>
+    <t>Mniej niż 100 piłkarzy posiadających/będących Wysoki Wzrost mają/są Słaba Celność oraz Słaba Kontrola piłki</t>
+  </si>
+  <si>
+    <t>Około 250 piłkarzy posiadających/będących Wysoki Wzrost mają/są Słaba Celność oraz Słaba Kontrola piłki</t>
+  </si>
+  <si>
+    <t>Około 500 piłkarzy posiadających/będących Wysoki Wzrost mają/są Słaba Celność oraz Słaba Kontrola piłki</t>
+  </si>
+  <si>
+    <t>Około 750 piłkarzy posiadających/będących Wysoki Wzrost mają/są Słaba Celność oraz Słaba Kontrola piłki</t>
+  </si>
+  <si>
+    <t>Więcej niż 1000 piłkarzy posiadających/będących Wysoki Wzrost mają/są Słaba Celność oraz Słaba Kontrola piłki</t>
+  </si>
+  <si>
+    <t>Żaden piłkarzy posiadających/będących Wysoki Wzrost mają/są Słaba Celność lub Słaba Kontrola piłki</t>
+  </si>
+  <si>
+    <t>Mniej niż ćwierć piłkarzy posiadających/będących Wysoki Wzrost mają/są Słaba Celność lub Słaba Kontrola piłki</t>
+  </si>
+  <si>
+    <t>Około jedna trzecia piłkarzy posiadających/będących Wysoki Wzrost mają/są Słaba Celność lub Słaba Kontrola piłki</t>
+  </si>
+  <si>
+    <t>Około połowa piłkarzy posiadających/będących Wysoki Wzrost mają/są Słaba Celność lub Słaba Kontrola piłki</t>
+  </si>
+  <si>
+    <t>Około dwie trzecie piłkarzy posiadających/będących Wysoki Wzrost mają/są Słaba Celność lub Słaba Kontrola piłki</t>
+  </si>
+  <si>
+    <t>Większość piłkarzy posiadających/będących Wysoki Wzrost mają/są Słaba Celność lub Słaba Kontrola piłki</t>
+  </si>
+  <si>
+    <t>Prawie każdy piłkarzy posiadających/będących Wysoki Wzrost mają/są Słaba Celność lub Słaba Kontrola piłki</t>
+  </si>
+  <si>
+    <t>Mniej niż 100 piłkarzy posiadających/będących Wysoki Wzrost mają/są Słaba Celność lub Słaba Kontrola piłki</t>
+  </si>
+  <si>
+    <t>Około 250 piłkarzy posiadających/będących Wysoki Wzrost mają/są Słaba Celność lub Słaba Kontrola piłki</t>
+  </si>
+  <si>
+    <t>Około 500 piłkarzy posiadających/będących Wysoki Wzrost mają/są Słaba Celność lub Słaba Kontrola piłki</t>
+  </si>
+  <si>
+    <t>Około 750 piłkarzy posiadających/będących Wysoki Wzrost mają/są Słaba Celność lub Słaba Kontrola piłki</t>
+  </si>
+  <si>
+    <t>Więcej niż 1000 piłkarzy posiadających/będących Wysoki Wzrost mają/są Słaba Celność lub Słaba Kontrola piłki</t>
+  </si>
+  <si>
+    <t>Wysoki Wzrost -&gt; Słaba Kontrola</t>
+  </si>
+  <si>
+    <t>Wysoki Wzrost -&gt; Słaba Celność</t>
+  </si>
+  <si>
+    <t>Wysoki Wzrost -&gt; Słaba Kontrola ORAZ Słaba Celność</t>
+  </si>
+  <si>
+    <t>Wysoki Wzrost -&gt; Słaba Kontrola LUB Słaba Celność</t>
+  </si>
+  <si>
+    <t>D:\Nauka\Git\KSR\Zadanie 2 - Sprawozdanie\Rysunki\Badanie3.2.png</t>
   </si>
 </sst>
 </file>
@@ -969,7 +1126,7 @@
               <a:rPr lang="pl-PL" sz="1400">
                 <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
               </a:rPr>
-              <a:t>X piłkarzy posiadajcych dobrą celność ma Przeciętne Ustawianie</a:t>
+              <a:t>X piłkarzy posiadajcych Dobrą Celność ma Przeciętne Ustawianie</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="pl-PL" sz="1400" baseline="0">
@@ -1003,6 +1160,25 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:val>
             <c:numRef>
               <c:f>'1.1'!$C$2:$C$13</c:f>
@@ -1067,18 +1243,18 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="002060"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
           <c:marker>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="002060"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="002060"/>
+                  <a:schemeClr val="accent3"/>
                 </a:solidFill>
               </a:ln>
             </c:spPr>
@@ -1191,9 +1367,9 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
             </a:ln>
@@ -1201,16 +1377,16 @@
           <c:marker>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
                   </a:schemeClr>
                 </a:solidFill>
               </a:ln>
@@ -1342,7 +1518,7 @@
                   <a:rPr lang="pl-PL" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>Miara podsumowania</a:t>
+                  <a:t>Kwantyfikator</a:t>
                 </a:r>
                 <a:endParaRPr lang="pl-PL" sz="900">
                   <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
@@ -1458,6 +1634,1084 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400">
+                <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1400">
+                <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+              </a:rPr>
+              <a:t>X piłkarzy posiadajcych Dobry Drybling ma Przeciętne Przyspieszenie</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL" sz="1400" baseline="0">
+              <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.1'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.2'!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.20799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.189</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.1'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.1'!$B$2:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Żaden</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mniej niż 1/4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Około 1/3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Około 1/2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Około 2/3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Większość</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Prawie każdy</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Mniej niż 100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Około 250</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Około 500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Około 750</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Więcej niż 1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.2'!$H$2:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.98699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.98699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.2E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.1'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.1'!$B$2:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Żaden</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mniej niż 1/4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Około 1/3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Około 1/2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Około 2/3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Większość</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Prawie każdy</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Mniej niż 100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Około 250</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Około 500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Około 750</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Więcej niż 1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.2'!$I$2:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.3E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="145473024"/>
+        <c:axId val="674550848"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="145473024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900">
+                    <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Kwantyfikator</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL" sz="900">
+                  <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="674550848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="674550848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900">
+                    <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="900">
+                    <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+                  </a:rPr>
+                  <a:t>Wartość miary</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="145473024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr>
+              <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400">
+                <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1400">
+                <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+              </a:rPr>
+              <a:t>X piłkarzy będących</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1400" baseline="0">
+                <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+              </a:rPr>
+              <a:t> Młodymi </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1400">
+                <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+              </a:rPr>
+              <a:t>ma Postawną Wagę</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL" sz="1400" baseline="0">
+              <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.3'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.3'!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.253</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.48499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.3'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.1'!$B$2:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Żaden</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mniej niż 1/4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Około 1/3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Około 1/2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Około 2/3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Większość</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Prawie każdy</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Mniej niż 100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Około 250</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Około 500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Około 750</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Więcej niż 1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.3'!$H$2:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.98699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.98699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.2E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.1'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.1'!$B$2:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Żaden</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mniej niż 1/4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Około 1/3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Około 1/2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Około 2/3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Większość</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Prawie każdy</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Mniej niż 100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Około 250</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Około 500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Około 750</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Więcej niż 1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.3'!$I$2:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.3E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="171272704"/>
+        <c:axId val="676765696"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="171272704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900">
+                    <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Kwantyfikator</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL" sz="900">
+                  <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="676765696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="676765696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900">
+                    <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="900">
+                    <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+                  </a:rPr>
+                  <a:t>Wartość miary</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="171272704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr>
+              <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
@@ -1879,7 +3133,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
@@ -2301,7 +3555,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
@@ -2839,7 +4093,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
@@ -3269,6 +4523,1347 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400">
+                <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1400">
+                <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+              </a:rPr>
+              <a:t>Mniej niż 1/4 Wysokich</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1400" baseline="0">
+                <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1400">
+                <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+              </a:rPr>
+              <a:t>piłkarzy ma...</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Słaba Kontrola</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3'!$C$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>T1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>T3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>T4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>T5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>T6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>T7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>T8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>T9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>T10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>T11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3'!$C$3:$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.44500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Słaba Celność</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3'!$C$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>T1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>T3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>T4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>T5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>T6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>T7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>T8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>T9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>T10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>T11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3'!$C$17:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.108</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.44500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Słaba Kontrola ORAZ Słaba Celność</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3'!$C$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>T1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>T3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>T4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>T5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>T6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>T7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>T8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>T9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>T10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>T11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3'!$C$31:$M$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.44500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Słaba Kontrola LUB Słaba Celność</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3'!$C$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>T1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>T3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>T4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>T5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>T6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>T7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>T8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>T9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>T10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>T11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3'!$C$45:$M$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.44500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="596720128"/>
+        <c:axId val="676769152"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="596720128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900">
+                    <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="900">
+                    <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+                  </a:rPr>
+                  <a:t>Miara podsumowania</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="676769152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="676769152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900">
+                    <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="900">
+                    <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+                  </a:rPr>
+                  <a:t>Wartość miary</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="596720128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr>
+              <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400">
+                <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1400">
+                <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+              </a:rPr>
+              <a:t>X Wysokich</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1400" baseline="0">
+                <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1400">
+                <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+              </a:rPr>
+              <a:t>piłkarzy ma...</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Około 750 - Słaba Kontrola</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3'!$C$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>T1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>T3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>T4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>T5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>T6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>T7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>T8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>T9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>T10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>T11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3'!$C$12:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.41599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.44500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Około 500 - Słaba Celność</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3'!$C$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>T1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>T3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>T4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>T5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>T6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>T7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>T8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>T9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>T10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>T11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3'!$C$25:$M$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.58599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.108</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.44500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Mniej niż 100 - Słaba Kontrola ORAZ Słaba Celność</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3'!$C$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>T1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>T3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>T4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>T5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>T6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>T7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>T8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>T9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>T10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>T11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3'!$C$37:$M$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.44500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Więcej niż 1000 - Słaba Kontrola LUB Słaba Celność</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3'!$C$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>T1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>T3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>T4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>T5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>T6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>T7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>T8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>T9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>T10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>T11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3'!$C$55:$M$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.44500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="601717760"/>
+        <c:axId val="661852096"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="601717760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900">
+                    <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="900">
+                    <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+                  </a:rPr>
+                  <a:t>Miara podsumowania</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="661852096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="661852096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900">
+                    <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="900">
+                    <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+                  </a:rPr>
+                  <a:t>Wartość miary</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="601717760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.62008185185185183"/>
+          <c:y val="0.2351884660250802"/>
+          <c:w val="0.37991814814814817"/>
+          <c:h val="0.6637204724409449"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr>
+              <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3307,6 +5902,80 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5925780</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>340320</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>55200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3373,7 +6042,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3423,6 +6092,75 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Wykres 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1117560</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>5040</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -3753,7 +6491,7 @@
         <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3765,8 +6503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3776,7 +6514,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D1" t="s">
@@ -3791,10 +6529,10 @@
       <c r="G1" t="s">
         <v>66</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>68</v>
       </c>
       <c r="J1" t="s">
@@ -3812,12 +6550,12 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>0.46800000000000003</v>
       </c>
       <c r="D2">
@@ -3832,10 +6570,10 @@
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>0.9</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>0.95</v>
       </c>
       <c r="J2">
@@ -3853,12 +6591,12 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3">
@@ -3873,10 +6611,10 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>0.65</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>0.7</v>
       </c>
       <c r="J3">
@@ -3894,12 +6632,12 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4">
@@ -3914,10 +6652,10 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>0.8</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>0.9</v>
       </c>
       <c r="J4">
@@ -3935,12 +6673,12 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>0</v>
       </c>
       <c r="D5">
@@ -3955,10 +6693,10 @@
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>0.8</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>0.9</v>
       </c>
       <c r="J5">
@@ -3976,12 +6714,12 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>0</v>
       </c>
       <c r="D6">
@@ -3996,10 +6734,10 @@
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>0.8</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <v>0.9</v>
       </c>
       <c r="J6">
@@ -4017,12 +6755,12 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>0</v>
       </c>
       <c r="D7">
@@ -4037,10 +6775,10 @@
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>0.8</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <v>0.9</v>
       </c>
       <c r="J7">
@@ -4058,12 +6796,12 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>0</v>
       </c>
       <c r="D8">
@@ -4078,10 +6816,10 @@
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>0.8</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="1">
         <v>0.9</v>
       </c>
       <c r="J8">
@@ -4099,12 +6837,12 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9">
@@ -4119,10 +6857,10 @@
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>0.99</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1">
         <v>0.99199999999999999</v>
       </c>
       <c r="J9">
@@ -4140,12 +6878,12 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>0</v>
       </c>
       <c r="D10">
@@ -4160,10 +6898,10 @@
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <v>0.98699999999999999</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="1">
         <v>0.99399999999999999</v>
       </c>
       <c r="J10">
@@ -4181,12 +6919,12 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>0</v>
       </c>
       <c r="D11">
@@ -4201,10 +6939,10 @@
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <v>0.98699999999999999</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="1">
         <v>0.99399999999999999</v>
       </c>
       <c r="J11">
@@ -4222,12 +6960,12 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>0</v>
       </c>
       <c r="D12">
@@ -4242,10 +6980,10 @@
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <v>0.98699999999999999</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="1">
         <v>0.99399999999999999</v>
       </c>
       <c r="J12">
@@ -4263,12 +7001,12 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>0</v>
       </c>
       <c r="D13">
@@ -4283,10 +7021,10 @@
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="1">
         <v>6.2E-2</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="1">
         <v>6.3E-2</v>
       </c>
       <c r="J13">
@@ -4313,17 +7051,19 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="87" customWidth="1"/>
     <col min="2" max="2" width="15.21875" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="8" max="9" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D1" t="s">
@@ -4338,10 +7078,10 @@
       <c r="G1" t="s">
         <v>66</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>68</v>
       </c>
       <c r="J1" t="s">
@@ -4359,12 +7099,12 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>0.20799999999999999</v>
       </c>
       <c r="D2">
@@ -4379,10 +7119,10 @@
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>0.9</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>0.95</v>
       </c>
       <c r="J2">
@@ -4400,12 +7140,12 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3">
@@ -4420,10 +7160,10 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>0.65</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>0.7</v>
       </c>
       <c r="J3">
@@ -4441,12 +7181,12 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4">
@@ -4461,10 +7201,10 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>0.8</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>0.9</v>
       </c>
       <c r="J4">
@@ -4482,12 +7222,12 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>0</v>
       </c>
       <c r="D5">
@@ -4502,10 +7242,10 @@
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>0.8</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>0.9</v>
       </c>
       <c r="J5">
@@ -4523,12 +7263,12 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>0</v>
       </c>
       <c r="D6">
@@ -4543,10 +7283,10 @@
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>0.8</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <v>0.9</v>
       </c>
       <c r="J6">
@@ -4564,12 +7304,12 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>0</v>
       </c>
       <c r="D7">
@@ -4584,10 +7324,10 @@
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>0.8</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <v>0.9</v>
       </c>
       <c r="J7">
@@ -4605,12 +7345,12 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>0</v>
       </c>
       <c r="D8">
@@ -4625,10 +7365,10 @@
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>0.8</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="1">
         <v>0.9</v>
       </c>
       <c r="J8">
@@ -4646,12 +7386,12 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>0</v>
       </c>
       <c r="D9">
@@ -4666,10 +7406,10 @@
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>0.99</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1">
         <v>0.99199999999999999</v>
       </c>
       <c r="J9">
@@ -4687,12 +7427,12 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>0.189</v>
       </c>
       <c r="D10">
@@ -4707,10 +7447,10 @@
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <v>0.98699999999999999</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="1">
         <v>0.99399999999999999</v>
       </c>
       <c r="J10">
@@ -4728,12 +7468,12 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>0</v>
       </c>
       <c r="D11">
@@ -4748,10 +7488,10 @@
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <v>0.98699999999999999</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="1">
         <v>0.99399999999999999</v>
       </c>
       <c r="J11">
@@ -4769,12 +7509,12 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>0</v>
       </c>
       <c r="D12">
@@ -4789,10 +7529,10 @@
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <v>0.98699999999999999</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="1">
         <v>0.99399999999999999</v>
       </c>
       <c r="J12">
@@ -4810,12 +7550,12 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>0</v>
       </c>
       <c r="D13">
@@ -4830,10 +7570,10 @@
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="1">
         <v>6.2E-2</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="1">
         <v>6.3E-2</v>
       </c>
       <c r="J13">
@@ -4851,6 +7591,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4859,18 +7600,19 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="79" customWidth="1"/>
     <col min="2" max="2" width="17.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D1" t="s">
@@ -4885,10 +7627,10 @@
       <c r="G1" t="s">
         <v>66</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>68</v>
       </c>
       <c r="J1" t="s">
@@ -4906,12 +7648,12 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>0.253</v>
       </c>
       <c r="D2">
@@ -4926,10 +7668,10 @@
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>0.9</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>0.95</v>
       </c>
       <c r="J2">
@@ -4947,12 +7689,12 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3">
@@ -4967,10 +7709,10 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>0.65</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>0.7</v>
       </c>
       <c r="J3">
@@ -4988,12 +7730,12 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4">
@@ -5008,10 +7750,10 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>0.8</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>0.9</v>
       </c>
       <c r="J4">
@@ -5029,12 +7771,12 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>0</v>
       </c>
       <c r="D5">
@@ -5049,10 +7791,10 @@
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>0.8</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>0.9</v>
       </c>
       <c r="J5">
@@ -5070,12 +7812,12 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>0</v>
       </c>
       <c r="D6">
@@ -5090,10 +7832,10 @@
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>0.8</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <v>0.9</v>
       </c>
       <c r="J6">
@@ -5111,12 +7853,12 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>0</v>
       </c>
       <c r="D7">
@@ -5131,10 +7873,10 @@
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>0.8</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <v>0.9</v>
       </c>
       <c r="J7">
@@ -5152,12 +7894,12 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>0</v>
       </c>
       <c r="D8">
@@ -5172,10 +7914,10 @@
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>0.8</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="1">
         <v>0.9</v>
       </c>
       <c r="J8">
@@ -5193,12 +7935,12 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>0</v>
       </c>
       <c r="D9">
@@ -5213,10 +7955,10 @@
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>0.99</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1">
         <v>0.99199999999999999</v>
       </c>
       <c r="J9">
@@ -5234,12 +7976,12 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>0</v>
       </c>
       <c r="D10">
@@ -5254,10 +7996,10 @@
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <v>0.98699999999999999</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="1">
         <v>0.99399999999999999</v>
       </c>
       <c r="J10">
@@ -5275,12 +8017,12 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>0.48499999999999999</v>
       </c>
       <c r="D11">
@@ -5295,10 +8037,10 @@
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <v>0.98699999999999999</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="1">
         <v>0.99399999999999999</v>
       </c>
       <c r="J11">
@@ -5316,12 +8058,12 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>0</v>
       </c>
       <c r="D12">
@@ -5336,10 +8078,10 @@
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <v>0.98699999999999999</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="1">
         <v>0.99399999999999999</v>
       </c>
       <c r="J12">
@@ -5357,12 +8099,12 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>0</v>
       </c>
       <c r="D13">
@@ -5377,10 +8119,10 @@
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="1">
         <v>6.2E-2</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="1">
         <v>6.3E-2</v>
       </c>
       <c r="J13">
@@ -5398,6 +8140,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6453,8 +9196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7494,4 +10237,2057 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="M12" sqref="A12:M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="67.77734375" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="E2">
+        <v>0.125</v>
+      </c>
+      <c r="F2">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0.9</v>
+      </c>
+      <c r="I2">
+        <v>0.95</v>
+      </c>
+      <c r="J2">
+        <v>0.999</v>
+      </c>
+      <c r="K2">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="L2">
+        <v>0.999</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="E4">
+        <v>0.125</v>
+      </c>
+      <c r="F4">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0.8</v>
+      </c>
+      <c r="I4">
+        <v>0.9</v>
+      </c>
+      <c r="J4">
+        <v>0.999</v>
+      </c>
+      <c r="K4">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="L4">
+        <v>0.999</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="E5">
+        <v>0.125</v>
+      </c>
+      <c r="F5">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0.8</v>
+      </c>
+      <c r="I5">
+        <v>0.9</v>
+      </c>
+      <c r="J5">
+        <v>0.999</v>
+      </c>
+      <c r="K5">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="L5">
+        <v>0.999</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="E6">
+        <v>0.125</v>
+      </c>
+      <c r="F6">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0.8</v>
+      </c>
+      <c r="I6">
+        <v>0.9</v>
+      </c>
+      <c r="J6">
+        <v>0.999</v>
+      </c>
+      <c r="K6">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="L6">
+        <v>0.999</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="E7">
+        <v>0.125</v>
+      </c>
+      <c r="F7">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0.8</v>
+      </c>
+      <c r="I7">
+        <v>0.9</v>
+      </c>
+      <c r="J7">
+        <v>0.999</v>
+      </c>
+      <c r="K7">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="L7">
+        <v>0.999</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="E8">
+        <v>0.125</v>
+      </c>
+      <c r="F8">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0.8</v>
+      </c>
+      <c r="I8">
+        <v>0.9</v>
+      </c>
+      <c r="J8">
+        <v>0.999</v>
+      </c>
+      <c r="K8">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="L8">
+        <v>0.999</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="E9">
+        <v>0.125</v>
+      </c>
+      <c r="F9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0.99</v>
+      </c>
+      <c r="I9">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="J9">
+        <v>0.999</v>
+      </c>
+      <c r="K9">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="L9">
+        <v>0.999</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="E10">
+        <v>0.125</v>
+      </c>
+      <c r="F10">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J10">
+        <v>0.999</v>
+      </c>
+      <c r="K10">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="L10">
+        <v>0.999</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="E11">
+        <v>0.125</v>
+      </c>
+      <c r="F11">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J11">
+        <v>0.999</v>
+      </c>
+      <c r="K11">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="L11">
+        <v>0.999</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="E13">
+        <v>0.125</v>
+      </c>
+      <c r="F13">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>6.2E-2</v>
+      </c>
+      <c r="I13">
+        <v>6.3E-2</v>
+      </c>
+      <c r="J13">
+        <v>0.999</v>
+      </c>
+      <c r="K13">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="L13">
+        <v>0.999</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="D16">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="E16">
+        <v>0.108</v>
+      </c>
+      <c r="F16">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0.9</v>
+      </c>
+      <c r="I16">
+        <v>0.95</v>
+      </c>
+      <c r="J16">
+        <v>0.999</v>
+      </c>
+      <c r="K16">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="L16">
+        <v>0.999</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.108</v>
+      </c>
+      <c r="F17" s="1">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="E18">
+        <v>0.108</v>
+      </c>
+      <c r="F18">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0.8</v>
+      </c>
+      <c r="I18">
+        <v>0.9</v>
+      </c>
+      <c r="J18">
+        <v>0.999</v>
+      </c>
+      <c r="K18">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="L18">
+        <v>0.999</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="E19">
+        <v>0.108</v>
+      </c>
+      <c r="F19">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>0.8</v>
+      </c>
+      <c r="I19">
+        <v>0.9</v>
+      </c>
+      <c r="J19">
+        <v>0.999</v>
+      </c>
+      <c r="K19">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="L19">
+        <v>0.999</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="E20">
+        <v>0.108</v>
+      </c>
+      <c r="F20">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>0.8</v>
+      </c>
+      <c r="I20">
+        <v>0.9</v>
+      </c>
+      <c r="J20">
+        <v>0.999</v>
+      </c>
+      <c r="K20">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="L20">
+        <v>0.999</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="E21">
+        <v>0.108</v>
+      </c>
+      <c r="F21">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0.8</v>
+      </c>
+      <c r="I21">
+        <v>0.9</v>
+      </c>
+      <c r="J21">
+        <v>0.999</v>
+      </c>
+      <c r="K21">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="L21">
+        <v>0.999</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="E22">
+        <v>0.108</v>
+      </c>
+      <c r="F22">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>0.8</v>
+      </c>
+      <c r="I22">
+        <v>0.9</v>
+      </c>
+      <c r="J22">
+        <v>0.999</v>
+      </c>
+      <c r="K22">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="L22">
+        <v>0.999</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="E23">
+        <v>0.108</v>
+      </c>
+      <c r="F23">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>0.99</v>
+      </c>
+      <c r="I23">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="J23">
+        <v>0.999</v>
+      </c>
+      <c r="K23">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="L23">
+        <v>0.999</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="E24">
+        <v>0.108</v>
+      </c>
+      <c r="F24">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="I24">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J24">
+        <v>0.999</v>
+      </c>
+      <c r="K24">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="L24">
+        <v>0.999</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.108</v>
+      </c>
+      <c r="F25" s="1">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="M25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="E26">
+        <v>0.108</v>
+      </c>
+      <c r="F26">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J26">
+        <v>0.999</v>
+      </c>
+      <c r="K26">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="L26">
+        <v>0.999</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>138</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="E27">
+        <v>0.108</v>
+      </c>
+      <c r="F27">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>6.2E-2</v>
+      </c>
+      <c r="I27">
+        <v>6.3E-2</v>
+      </c>
+      <c r="J27">
+        <v>0.999</v>
+      </c>
+      <c r="K27">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="L27">
+        <v>0.999</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>139</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30">
+        <v>0.999</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G30">
+        <v>0.5</v>
+      </c>
+      <c r="H30">
+        <v>0.9</v>
+      </c>
+      <c r="I30">
+        <v>0.95</v>
+      </c>
+      <c r="J30">
+        <v>0.999</v>
+      </c>
+      <c r="K30">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="L30">
+        <v>0.999</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="M31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>141</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G32">
+        <v>0.5</v>
+      </c>
+      <c r="H32">
+        <v>0.8</v>
+      </c>
+      <c r="I32">
+        <v>0.9</v>
+      </c>
+      <c r="J32">
+        <v>0.999</v>
+      </c>
+      <c r="K32">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="L32">
+        <v>0.999</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>142</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G33">
+        <v>0.5</v>
+      </c>
+      <c r="H33">
+        <v>0.8</v>
+      </c>
+      <c r="I33">
+        <v>0.9</v>
+      </c>
+      <c r="J33">
+        <v>0.999</v>
+      </c>
+      <c r="K33">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="L33">
+        <v>0.999</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>143</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G34">
+        <v>0.5</v>
+      </c>
+      <c r="H34">
+        <v>0.8</v>
+      </c>
+      <c r="I34">
+        <v>0.9</v>
+      </c>
+      <c r="J34">
+        <v>0.999</v>
+      </c>
+      <c r="K34">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="L34">
+        <v>0.999</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>144</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G35">
+        <v>0.5</v>
+      </c>
+      <c r="H35">
+        <v>0.8</v>
+      </c>
+      <c r="I35">
+        <v>0.9</v>
+      </c>
+      <c r="J35">
+        <v>0.999</v>
+      </c>
+      <c r="K35">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="L35">
+        <v>0.999</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>145</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G36">
+        <v>0.5</v>
+      </c>
+      <c r="H36">
+        <v>0.8</v>
+      </c>
+      <c r="I36">
+        <v>0.9</v>
+      </c>
+      <c r="J36">
+        <v>0.999</v>
+      </c>
+      <c r="K36">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="L36">
+        <v>0.999</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="M37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G38">
+        <v>0.5</v>
+      </c>
+      <c r="H38">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="I38">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J38">
+        <v>0.999</v>
+      </c>
+      <c r="K38">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="L38">
+        <v>0.999</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>148</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G39">
+        <v>0.5</v>
+      </c>
+      <c r="H39">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="I39">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J39">
+        <v>0.999</v>
+      </c>
+      <c r="K39">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="L39">
+        <v>0.999</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>149</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G40">
+        <v>0.5</v>
+      </c>
+      <c r="H40">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="I40">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J40">
+        <v>0.999</v>
+      </c>
+      <c r="K40">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="L40">
+        <v>0.999</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>150</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G41">
+        <v>0.5</v>
+      </c>
+      <c r="H41">
+        <v>6.2E-2</v>
+      </c>
+      <c r="I41">
+        <v>6.3E-2</v>
+      </c>
+      <c r="J41">
+        <v>0.999</v>
+      </c>
+      <c r="K41">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="L41">
+        <v>0.999</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>151</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="F44">
+        <v>2.7E-2</v>
+      </c>
+      <c r="G44">
+        <v>0.5</v>
+      </c>
+      <c r="H44">
+        <v>0.9</v>
+      </c>
+      <c r="I44">
+        <v>0.95</v>
+      </c>
+      <c r="J44">
+        <v>0.999</v>
+      </c>
+      <c r="K44">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="L44">
+        <v>0.999</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="F45" s="1">
+        <v>2.7E-2</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="L45" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="M45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>153</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="F46">
+        <v>2.7E-2</v>
+      </c>
+      <c r="G46">
+        <v>0.5</v>
+      </c>
+      <c r="H46">
+        <v>0.8</v>
+      </c>
+      <c r="I46">
+        <v>0.9</v>
+      </c>
+      <c r="J46">
+        <v>0.999</v>
+      </c>
+      <c r="K46">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="L46">
+        <v>0.999</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>154</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="F47">
+        <v>2.7E-2</v>
+      </c>
+      <c r="G47">
+        <v>0.5</v>
+      </c>
+      <c r="H47">
+        <v>0.8</v>
+      </c>
+      <c r="I47">
+        <v>0.9</v>
+      </c>
+      <c r="J47">
+        <v>0.999</v>
+      </c>
+      <c r="K47">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="L47">
+        <v>0.999</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>155</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="F48">
+        <v>2.7E-2</v>
+      </c>
+      <c r="G48">
+        <v>0.5</v>
+      </c>
+      <c r="H48">
+        <v>0.8</v>
+      </c>
+      <c r="I48">
+        <v>0.9</v>
+      </c>
+      <c r="J48">
+        <v>0.999</v>
+      </c>
+      <c r="K48">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="L48">
+        <v>0.999</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>156</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="F49">
+        <v>2.7E-2</v>
+      </c>
+      <c r="G49">
+        <v>0.5</v>
+      </c>
+      <c r="H49">
+        <v>0.8</v>
+      </c>
+      <c r="I49">
+        <v>0.9</v>
+      </c>
+      <c r="J49">
+        <v>0.999</v>
+      </c>
+      <c r="K49">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="L49">
+        <v>0.999</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>157</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="F50">
+        <v>2.7E-2</v>
+      </c>
+      <c r="G50">
+        <v>0.5</v>
+      </c>
+      <c r="H50">
+        <v>0.8</v>
+      </c>
+      <c r="I50">
+        <v>0.9</v>
+      </c>
+      <c r="J50">
+        <v>0.999</v>
+      </c>
+      <c r="K50">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="L50">
+        <v>0.999</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>158</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="F51">
+        <v>2.7E-2</v>
+      </c>
+      <c r="G51">
+        <v>0.5</v>
+      </c>
+      <c r="H51">
+        <v>0.99</v>
+      </c>
+      <c r="I51">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="J51">
+        <v>0.999</v>
+      </c>
+      <c r="K51">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="L51">
+        <v>0.999</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>159</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="F52">
+        <v>2.7E-2</v>
+      </c>
+      <c r="G52">
+        <v>0.5</v>
+      </c>
+      <c r="H52">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="I52">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J52">
+        <v>0.999</v>
+      </c>
+      <c r="K52">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="L52">
+        <v>0.999</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>160</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="F53">
+        <v>2.7E-2</v>
+      </c>
+      <c r="G53">
+        <v>0.5</v>
+      </c>
+      <c r="H53">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="I53">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J53">
+        <v>0.999</v>
+      </c>
+      <c r="K53">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="L53">
+        <v>0.999</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>161</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="F54">
+        <v>2.7E-2</v>
+      </c>
+      <c r="G54">
+        <v>0.5</v>
+      </c>
+      <c r="H54">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="I54">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J54">
+        <v>0.999</v>
+      </c>
+      <c r="K54">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="L54">
+        <v>0.999</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="F55" s="1">
+        <v>2.7E-2</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H55" s="1">
+        <v>6.2E-2</v>
+      </c>
+      <c r="I55" s="1">
+        <v>6.3E-2</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="K55" s="1">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="L55" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="M55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Zadanie 2 - Sprawozdanie/Wyniki.xlsx
+++ b/Zadanie 2 - Sprawozdanie/Wyniki.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="108" windowWidth="22980" windowHeight="9552" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="108" windowWidth="22980" windowHeight="9552" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="_xltb_storage_" sheetId="3" state="veryHidden" r:id="rId1"/>
     <sheet name="1.1" sheetId="4" r:id="rId2"/>
-    <sheet name="1.2" sheetId="5" r:id="rId3"/>
-    <sheet name="1.3" sheetId="6" r:id="rId4"/>
+    <sheet name="1.2" sheetId="6" r:id="rId3"/>
+    <sheet name="1.3" sheetId="5" r:id="rId4"/>
     <sheet name="2.1" sheetId="1" r:id="rId5"/>
     <sheet name="2.2" sheetId="2" r:id="rId6"/>
     <sheet name="3" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -304,78 +305,6 @@
     <t>Więcej niż 1000 piłkarzy posiadających/będących Dobra Celność mają/są Przeciętne Ustawianie się</t>
   </si>
   <si>
-    <t>Żaden piłkarzy posiadających/będących Dobry Dribbling mają/są Przeciętne Przyspieszenie</t>
-  </si>
-  <si>
-    <t>Mniej niż ćwierć piłkarzy posiadających/będących Dobry Dribbling mają/są Przeciętne Przyspieszenie</t>
-  </si>
-  <si>
-    <t>Około jedna trzecia piłkarzy posiadających/będących Dobry Dribbling mają/są Przeciętne Przyspieszenie</t>
-  </si>
-  <si>
-    <t>Około połowa piłkarzy posiadających/będących Dobry Dribbling mają/są Przeciętne Przyspieszenie</t>
-  </si>
-  <si>
-    <t>Około dwie trzecie piłkarzy posiadających/będących Dobry Dribbling mają/są Przeciętne Przyspieszenie</t>
-  </si>
-  <si>
-    <t>Większość piłkarzy posiadających/będących Dobry Dribbling mają/są Przeciętne Przyspieszenie</t>
-  </si>
-  <si>
-    <t>Prawie każdy piłkarzy posiadających/będących Dobry Dribbling mają/są Przeciętne Przyspieszenie</t>
-  </si>
-  <si>
-    <t>Mniej niż 100 piłkarzy posiadających/będących Dobry Dribbling mają/są Przeciętne Przyspieszenie</t>
-  </si>
-  <si>
-    <t>Około 250 piłkarzy posiadających/będących Dobry Dribbling mają/są Przeciętne Przyspieszenie</t>
-  </si>
-  <si>
-    <t>Około 500 piłkarzy posiadających/będących Dobry Dribbling mają/są Przeciętne Przyspieszenie</t>
-  </si>
-  <si>
-    <t>Około 750 piłkarzy posiadających/będących Dobry Dribbling mają/są Przeciętne Przyspieszenie</t>
-  </si>
-  <si>
-    <t>Więcej niż 1000 piłkarzy posiadających/będących Dobry Dribbling mają/są Przeciętne Przyspieszenie</t>
-  </si>
-  <si>
-    <t>Żaden piłkarzy posiadających/będących Młody Wiek mają/są Postawna Waga</t>
-  </si>
-  <si>
-    <t>Mniej niż ćwierć piłkarzy posiadających/będących Młody Wiek mają/są Postawna Waga</t>
-  </si>
-  <si>
-    <t>Około jedna trzecia piłkarzy posiadających/będących Młody Wiek mają/są Postawna Waga</t>
-  </si>
-  <si>
-    <t>Około połowa piłkarzy posiadających/będących Młody Wiek mają/są Postawna Waga</t>
-  </si>
-  <si>
-    <t>Około dwie trzecie piłkarzy posiadających/będących Młody Wiek mają/są Postawna Waga</t>
-  </si>
-  <si>
-    <t>Większość piłkarzy posiadających/będących Młody Wiek mają/są Postawna Waga</t>
-  </si>
-  <si>
-    <t>Prawie każdy piłkarzy posiadających/będących Młody Wiek mają/są Postawna Waga</t>
-  </si>
-  <si>
-    <t>Mniej niż 100 piłkarzy posiadających/będących Młody Wiek mają/są Postawna Waga</t>
-  </si>
-  <si>
-    <t>Około 250 piłkarzy posiadających/będących Młody Wiek mają/są Postawna Waga</t>
-  </si>
-  <si>
-    <t>Około 500 piłkarzy posiadających/będących Młody Wiek mają/są Postawna Waga</t>
-  </si>
-  <si>
-    <t>Około 750 piłkarzy posiadających/będących Młody Wiek mają/są Postawna Waga</t>
-  </si>
-  <si>
-    <t>Więcej niż 1000 piłkarzy posiadających/będących Młody Wiek mają/są Postawna Waga</t>
-  </si>
-  <si>
     <t>Żaden piłkarzy posiadających/będących Wysoki Wzrost mają/są Słaba Kontrola piłki</t>
   </si>
   <si>
@@ -532,7 +461,79 @@
     <t>Wysoki Wzrost -&gt; Słaba Kontrola LUB Słaba Celność</t>
   </si>
   <si>
-    <t>D:\Nauka\Git\KSR\Zadanie 2 - Sprawozdanie\Rysunki\Badanie3.2.png</t>
+    <t>Żaden piłkarzy posiadających/będących Słaba Prędkość mają/są Zadowalające Opanowanie</t>
+  </si>
+  <si>
+    <t>Mniej niż ćwierć piłkarzy posiadających/będących Słaba Prędkość mają/są Zadowalające Opanowanie</t>
+  </si>
+  <si>
+    <t>Około jedna trzecia piłkarzy posiadających/będących Słaba Prędkość mają/są Zadowalające Opanowanie</t>
+  </si>
+  <si>
+    <t>Około połowa piłkarzy posiadających/będących Słaba Prędkość mają/są Zadowalające Opanowanie</t>
+  </si>
+  <si>
+    <t>Około dwie trzecie piłkarzy posiadających/będących Słaba Prędkość mają/są Zadowalające Opanowanie</t>
+  </si>
+  <si>
+    <t>Większość piłkarzy posiadających/będących Słaba Prędkość mają/są Zadowalające Opanowanie</t>
+  </si>
+  <si>
+    <t>Prawie każdy piłkarzy posiadających/będących Słaba Prędkość mają/są Zadowalające Opanowanie</t>
+  </si>
+  <si>
+    <t>Mniej niż 100 piłkarzy posiadających/będących Słaba Prędkość mają/są Zadowalające Opanowanie</t>
+  </si>
+  <si>
+    <t>Około 250 piłkarzy posiadających/będących Słaba Prędkość mają/są Zadowalające Opanowanie</t>
+  </si>
+  <si>
+    <t>Około 500 piłkarzy posiadających/będących Słaba Prędkość mają/są Zadowalające Opanowanie</t>
+  </si>
+  <si>
+    <t>Około 750 piłkarzy posiadających/będących Słaba Prędkość mają/są Zadowalające Opanowanie</t>
+  </si>
+  <si>
+    <t>Więcej niż 1000 piłkarzy posiadających/będących Słaba Prędkość mają/są Zadowalające Opanowanie</t>
+  </si>
+  <si>
+    <t>Żaden piłkarzy posiadających/będących Młody Wiek mają/są Dobra Prędkość</t>
+  </si>
+  <si>
+    <t>Mniej niż ćwierć piłkarzy posiadających/będących Młody Wiek mają/są Dobra Prędkość</t>
+  </si>
+  <si>
+    <t>Około jedna trzecia piłkarzy posiadających/będących Młody Wiek mają/są Dobra Prędkość</t>
+  </si>
+  <si>
+    <t>Około połowa piłkarzy posiadających/będących Młody Wiek mają/są Dobra Prędkość</t>
+  </si>
+  <si>
+    <t>Około dwie trzecie piłkarzy posiadających/będących Młody Wiek mają/są Dobra Prędkość</t>
+  </si>
+  <si>
+    <t>Większość piłkarzy posiadających/będących Młody Wiek mają/są Dobra Prędkość</t>
+  </si>
+  <si>
+    <t>Prawie każdy piłkarzy posiadających/będących Młody Wiek mają/są Dobra Prędkość</t>
+  </si>
+  <si>
+    <t>Mniej niż 100 piłkarzy posiadających/będących Młody Wiek mają/są Dobra Prędkość</t>
+  </si>
+  <si>
+    <t>Około 250 piłkarzy posiadających/będących Młody Wiek mają/są Dobra Prędkość</t>
+  </si>
+  <si>
+    <t>Około 500 piłkarzy posiadających/będących Młody Wiek mają/są Dobra Prędkość</t>
+  </si>
+  <si>
+    <t>Około 750 piłkarzy posiadających/będących Młody Wiek mają/są Dobra Prędkość</t>
+  </si>
+  <si>
+    <t>Więcej niż 1000 piłkarzy posiadających/będących Młody Wiek mają/są Dobra Prędkość</t>
+  </si>
+  <si>
+    <t>D:\Nauka\Git\KSR\Zadanie 2 - Sprawozdanie\Rysunki\Badanie13.png</t>
   </si>
 </sst>
 </file>
@@ -1493,11 +1494,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="674494976"/>
-        <c:axId val="145639680"/>
+        <c:axId val="131618816"/>
+        <c:axId val="131362176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="674494976"/>
+        <c:axId val="131618816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1544,7 +1545,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145639680"/>
+        <c:crossAx val="131362176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1552,7 +1553,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145639680"/>
+        <c:axId val="131362176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1599,7 +1600,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="674494976"/>
+        <c:crossAx val="131618816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1662,7 +1663,7 @@
               <a:rPr lang="pl-PL" sz="1400">
                 <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
               </a:rPr>
-              <a:t>X piłkarzy posiadajcych Dobry Drybling ma Przeciętne Przyspieszenie</a:t>
+              <a:t>X piłkarzy mających Słabą Prędkość ma Zadowalające Opanowanie</a:t>
             </a:r>
             <a:endParaRPr lang="pl-PL" sz="1400" baseline="0">
               <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
@@ -1684,7 +1685,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1.1'!$C$1</c:f>
+              <c:f>'1.2'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1719,19 +1720,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.20799999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.23799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.16200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1743,7 +1744,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.189</c:v>
+                  <c:v>0.29199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -1764,7 +1765,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1.1'!$H$1</c:f>
+              <c:f>'1.2'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2026,11 +2027,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="145473024"/>
-        <c:axId val="674550848"/>
+        <c:axId val="174838784"/>
+        <c:axId val="131829120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="145473024"/>
+        <c:axId val="174838784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2077,7 +2078,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="674550848"/>
+        <c:crossAx val="131829120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2085,7 +2086,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="674550848"/>
+        <c:axId val="131829120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2132,7 +2133,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145473024"/>
+        <c:crossAx val="174838784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2195,23 +2196,14 @@
               <a:rPr lang="pl-PL" sz="1400">
                 <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
               </a:rPr>
-              <a:t>X piłkarzy będących</a:t>
+              <a:t>X piłkarzy będacych</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="pl-PL" sz="1400" baseline="0">
                 <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
               </a:rPr>
-              <a:t> Młodymi </a:t>
+              <a:t> Młodymi ma Dobrą Prędkość</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="pl-PL" sz="1400">
-                <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
-              </a:rPr>
-              <a:t>ma Postawną Wagę</a:t>
-            </a:r>
-            <a:endParaRPr lang="pl-PL" sz="1400" baseline="0">
-              <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2229,7 +2221,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1.3'!$C$1</c:f>
+              <c:f>'1.1'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2264,13 +2256,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.253</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.34399999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2291,13 +2283,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.48499999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2309,7 +2301,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1.3'!$H$1</c:f>
+              <c:f>'1.1'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2571,11 +2563,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="171272704"/>
-        <c:axId val="676765696"/>
+        <c:axId val="131228160"/>
+        <c:axId val="131365632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="171272704"/>
+        <c:axId val="131228160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2622,7 +2614,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="676765696"/>
+        <c:crossAx val="131365632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2630,7 +2622,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="676765696"/>
+        <c:axId val="131365632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2677,7 +2669,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171272704"/>
+        <c:crossAx val="131228160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2745,7 +2737,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2993,11 +2984,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="45515264"/>
-        <c:axId val="44920768"/>
+        <c:axId val="147988480"/>
+        <c:axId val="131832576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="45515264"/>
+        <c:axId val="147988480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3026,7 +3017,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -3044,7 +3034,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44920768"/>
+        <c:crossAx val="131832576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3052,7 +3042,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44920768"/>
+        <c:axId val="131832576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3080,7 +3070,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3099,14 +3088,13 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45515264"/>
+        <c:crossAx val="147988480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -3167,7 +3155,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3415,11 +3402,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="139435008"/>
-        <c:axId val="145641408"/>
+        <c:axId val="129269760"/>
+        <c:axId val="174559168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="139435008"/>
+        <c:axId val="129269760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3448,7 +3435,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -3466,7 +3452,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145641408"/>
+        <c:crossAx val="174559168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3474,7 +3460,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145641408"/>
+        <c:axId val="174559168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3502,7 +3488,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3521,14 +3506,13 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139435008"/>
+        <c:crossAx val="129269760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -3598,7 +3582,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3956,11 +3939,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="158572032"/>
-        <c:axId val="593320704"/>
+        <c:axId val="129271296"/>
+        <c:axId val="174560896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="158572032"/>
+        <c:axId val="129271296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3986,7 +3969,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -4004,7 +3986,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="593320704"/>
+        <c:crossAx val="174560896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4012,7 +3994,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="593320704"/>
+        <c:axId val="174560896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4040,7 +4022,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4059,14 +4040,13 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158572032"/>
+        <c:crossAx val="129271296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4136,7 +4116,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4384,11 +4363,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="594667008"/>
-        <c:axId val="593345856"/>
+        <c:axId val="129272832"/>
+        <c:axId val="768090688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="594667008"/>
+        <c:axId val="129272832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4416,7 +4395,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -4434,7 +4412,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="593345856"/>
+        <c:crossAx val="768090688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4442,7 +4420,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="593345856"/>
+        <c:axId val="768090688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4470,7 +4448,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4489,14 +4466,13 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="594667008"/>
+        <c:crossAx val="129272832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -5051,11 +5027,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="596720128"/>
-        <c:axId val="676769152"/>
+        <c:axId val="129519616"/>
+        <c:axId val="768092416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="596720128"/>
+        <c:axId val="129519616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5100,7 +5076,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="676769152"/>
+        <c:crossAx val="768092416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5108,7 +5084,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="676769152"/>
+        <c:axId val="768092416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5155,7 +5131,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="596720128"/>
+        <c:crossAx val="129519616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5717,11 +5693,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="601717760"/>
-        <c:axId val="661852096"/>
+        <c:axId val="129521152"/>
+        <c:axId val="768094720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="601717760"/>
+        <c:axId val="129521152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5766,7 +5742,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="661852096"/>
+        <c:crossAx val="768094720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5774,7 +5750,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="661852096"/>
+        <c:axId val="768094720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5821,7 +5797,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="601717760"/>
+        <c:crossAx val="129521152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5906,15 +5882,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
+      <xdr:colOff>358140</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>5925780</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>340320</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>9480</xdr:rowOff>
+      <xdr:rowOff>55200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5943,15 +5919,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
+      <xdr:colOff>525780</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>340320</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5925780</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>55200</xdr:rowOff>
+      <xdr:rowOff>9480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7050,8 +7026,558 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="79" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.318</v>
+      </c>
+      <c r="E2">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="F2">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="J2">
+        <v>0.998</v>
+      </c>
+      <c r="K2">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="L2">
+        <v>0.999</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.318</v>
+      </c>
+      <c r="E3">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="F3">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J3">
+        <v>0.998</v>
+      </c>
+      <c r="K3">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="L3">
+        <v>0.999</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.318</v>
+      </c>
+      <c r="E4">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="F4">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="J4">
+        <v>0.998</v>
+      </c>
+      <c r="K4">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="L4">
+        <v>0.999</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="D5">
+        <v>0.318</v>
+      </c>
+      <c r="E5">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="F5">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="J5">
+        <v>0.998</v>
+      </c>
+      <c r="K5">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="L5">
+        <v>0.999</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.318</v>
+      </c>
+      <c r="E6">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="F6">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="J6">
+        <v>0.998</v>
+      </c>
+      <c r="K6">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="L6">
+        <v>0.999</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0.318</v>
+      </c>
+      <c r="E7">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="F7">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="J7">
+        <v>0.998</v>
+      </c>
+      <c r="K7">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="L7">
+        <v>0.999</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0.318</v>
+      </c>
+      <c r="E8">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="F8">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="J8">
+        <v>0.998</v>
+      </c>
+      <c r="K8">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="L8">
+        <v>0.999</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0.318</v>
+      </c>
+      <c r="E9">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="F9">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="J9">
+        <v>0.998</v>
+      </c>
+      <c r="K9">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="L9">
+        <v>0.999</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="D10">
+        <v>0.318</v>
+      </c>
+      <c r="E10">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="F10">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J10">
+        <v>0.998</v>
+      </c>
+      <c r="K10">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="L10">
+        <v>0.999</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0.318</v>
+      </c>
+      <c r="E11">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="F11">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J11">
+        <v>0.998</v>
+      </c>
+      <c r="K11">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="L11">
+        <v>0.999</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0.318</v>
+      </c>
+      <c r="E12">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="F12">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J12">
+        <v>0.998</v>
+      </c>
+      <c r="K12">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="L12">
+        <v>0.999</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0.318</v>
+      </c>
+      <c r="E13">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="F13">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>6.2E-2</v>
+      </c>
+      <c r="I13" s="1">
+        <v>6.3E-2</v>
+      </c>
+      <c r="J13">
+        <v>0.998</v>
+      </c>
+      <c r="K13">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="L13">
+        <v>0.999</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7099,22 +7625,22 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>155</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C2" s="1">
-        <v>0.20799999999999999</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.61399999999999999</v>
+        <v>0.499</v>
       </c>
       <c r="E2">
-        <v>0.13600000000000001</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="F2">
-        <v>0.127</v>
+        <v>0.254</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -7129,10 +7655,10 @@
         <v>0.999</v>
       </c>
       <c r="K2">
-        <v>0.70499999999999996</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="L2">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -7140,22 +7666,22 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.61399999999999999</v>
+        <v>0.499</v>
       </c>
       <c r="E3">
-        <v>0.13600000000000001</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="F3">
-        <v>0.127</v>
+        <v>0.254</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -7170,10 +7696,10 @@
         <v>0.999</v>
       </c>
       <c r="K3">
-        <v>0.70499999999999996</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="L3">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -7181,22 +7707,22 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="D4">
-        <v>0.61399999999999999</v>
+        <v>0.499</v>
       </c>
       <c r="E4">
-        <v>0.13600000000000001</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="F4">
-        <v>0.127</v>
+        <v>0.254</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -7211,10 +7737,10 @@
         <v>0.999</v>
       </c>
       <c r="K4">
-        <v>0.70499999999999996</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="L4">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -7222,7 +7748,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>51</v>
@@ -7231,13 +7757,13 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.61399999999999999</v>
+        <v>0.499</v>
       </c>
       <c r="E5">
-        <v>0.13600000000000001</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="F5">
-        <v>0.127</v>
+        <v>0.254</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -7252,10 +7778,10 @@
         <v>0.999</v>
       </c>
       <c r="K5">
-        <v>0.70499999999999996</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="L5">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -7263,7 +7789,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>52</v>
@@ -7272,13 +7798,13 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.61399999999999999</v>
+        <v>0.499</v>
       </c>
       <c r="E6">
-        <v>0.13600000000000001</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="F6">
-        <v>0.127</v>
+        <v>0.254</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -7293,10 +7819,10 @@
         <v>0.999</v>
       </c>
       <c r="K6">
-        <v>0.70499999999999996</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="L6">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -7304,7 +7830,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>53</v>
@@ -7313,13 +7839,13 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.61399999999999999</v>
+        <v>0.499</v>
       </c>
       <c r="E7">
-        <v>0.13600000000000001</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="F7">
-        <v>0.127</v>
+        <v>0.254</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -7334,10 +7860,10 @@
         <v>0.999</v>
       </c>
       <c r="K7">
-        <v>0.70499999999999996</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="L7">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -7345,7 +7871,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>161</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>54</v>
@@ -7354,13 +7880,13 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.61399999999999999</v>
+        <v>0.499</v>
       </c>
       <c r="E8">
-        <v>0.13600000000000001</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="F8">
-        <v>0.127</v>
+        <v>0.254</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -7375,10 +7901,10 @@
         <v>0.999</v>
       </c>
       <c r="K8">
-        <v>0.70499999999999996</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="L8">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -7386,7 +7912,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>59</v>
@@ -7395,13 +7921,13 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.61399999999999999</v>
+        <v>0.499</v>
       </c>
       <c r="E9">
-        <v>0.13600000000000001</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="F9">
-        <v>0.127</v>
+        <v>0.254</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -7416,10 +7942,10 @@
         <v>0.999</v>
       </c>
       <c r="K9">
-        <v>0.70499999999999996</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="L9">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="M9">
         <v>1</v>
@@ -7427,22 +7953,22 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>163</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C10" s="1">
-        <v>0.189</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.61399999999999999</v>
+        <v>0.499</v>
       </c>
       <c r="E10">
-        <v>0.13600000000000001</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="F10">
-        <v>0.127</v>
+        <v>0.254</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -7457,10 +7983,10 @@
         <v>0.999</v>
       </c>
       <c r="K10">
-        <v>0.70499999999999996</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="L10">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -7468,7 +7994,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>100</v>
+        <v>164</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>56</v>
@@ -7477,13 +8003,13 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.61399999999999999</v>
+        <v>0.499</v>
       </c>
       <c r="E11">
-        <v>0.13600000000000001</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="F11">
-        <v>0.127</v>
+        <v>0.254</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -7498,10 +8024,10 @@
         <v>0.999</v>
       </c>
       <c r="K11">
-        <v>0.70499999999999996</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="L11">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="M11">
         <v>1</v>
@@ -7509,7 +8035,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>165</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>57</v>
@@ -7518,13 +8044,13 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.61399999999999999</v>
+        <v>0.499</v>
       </c>
       <c r="E12">
-        <v>0.13600000000000001</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="F12">
-        <v>0.127</v>
+        <v>0.254</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -7539,10 +8065,10 @@
         <v>0.999</v>
       </c>
       <c r="K12">
-        <v>0.70499999999999996</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="L12">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="M12">
         <v>1</v>
@@ -7550,22 +8076,22 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>166</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>0.61399999999999999</v>
+        <v>0.499</v>
       </c>
       <c r="E13">
-        <v>0.13600000000000001</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="F13">
-        <v>0.127</v>
+        <v>0.254</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -7580,563 +8106,74 @@
         <v>0.999</v>
       </c>
       <c r="K13">
-        <v>0.70499999999999996</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="L13">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="79" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L1" t="s">
-        <v>71</v>
-      </c>
-      <c r="M1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.253</v>
-      </c>
-      <c r="D2">
-        <v>0.88700000000000001</v>
-      </c>
-      <c r="E2">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="F2">
-        <v>0.02</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>0.88700000000000001</v>
-      </c>
-      <c r="E3">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="F3">
-        <v>0.02</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0.88700000000000001</v>
-      </c>
-      <c r="E4">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="F4">
-        <v>0.02</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0.88700000000000001</v>
-      </c>
-      <c r="E5">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="F5">
-        <v>0.02</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0.88700000000000001</v>
-      </c>
-      <c r="E6">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="F6">
-        <v>0.02</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0.88700000000000001</v>
-      </c>
-      <c r="E7">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="F7">
-        <v>0.02</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0.88700000000000001</v>
-      </c>
-      <c r="E8">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="F8">
-        <v>0.02</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0.88700000000000001</v>
-      </c>
-      <c r="E9">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="F9">
-        <v>0.02</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.99</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0.88700000000000001</v>
-      </c>
-      <c r="E10">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="F10">
-        <v>0.02</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.48499999999999999</v>
-      </c>
-      <c r="D11">
-        <v>0.88700000000000001</v>
-      </c>
-      <c r="E11">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="F11">
-        <v>0.02</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>113</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0.88700000000000001</v>
-      </c>
-      <c r="E12">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="F12">
-        <v>0.02</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>114</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0.88700000000000001</v>
-      </c>
-      <c r="E13">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="F13">
-        <v>0.02</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1">
-        <v>6.2E-2</v>
-      </c>
-      <c r="I13" s="1">
-        <v>6.3E-2</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C27"/>
+      <c r="H27"/>
+      <c r="I27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10243,7 +10280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="M12" sqref="A12:M12"/>
     </sheetView>
   </sheetViews>
@@ -10255,7 +10292,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s">
@@ -10294,7 +10331,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>48</v>
@@ -10335,7 +10372,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>50</v>
@@ -10376,7 +10413,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>49</v>
@@ -10417,7 +10454,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>51</v>
@@ -10458,7 +10495,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>52</v>
@@ -10499,7 +10536,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>53</v>
@@ -10540,7 +10577,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>54</v>
@@ -10581,7 +10618,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>59</v>
@@ -10622,7 +10659,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>55</v>
@@ -10663,7 +10700,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>56</v>
@@ -10704,7 +10741,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>57</v>
@@ -10745,7 +10782,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>58</v>
@@ -10789,12 +10826,12 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>48</v>
@@ -10835,7 +10872,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>50</v>
@@ -10876,7 +10913,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>49</v>
@@ -10917,7 +10954,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>51</v>
@@ -10958,7 +10995,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>52</v>
@@ -10999,7 +11036,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>53</v>
@@ -11040,7 +11077,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>54</v>
@@ -11081,7 +11118,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>59</v>
@@ -11122,7 +11159,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>55</v>
@@ -11163,7 +11200,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>56</v>
@@ -11204,7 +11241,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>57</v>
@@ -11245,7 +11282,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>58</v>
@@ -11289,13 +11326,13 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="B29" s="3"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>48</v>
@@ -11336,7 +11373,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>50</v>
@@ -11377,7 +11414,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>49</v>
@@ -11418,7 +11455,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>51</v>
@@ -11459,7 +11496,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>52</v>
@@ -11500,7 +11537,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>53</v>
@@ -11541,7 +11578,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>54</v>
@@ -11582,7 +11619,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>59</v>
@@ -11623,7 +11660,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>55</v>
@@ -11664,7 +11701,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>56</v>
@@ -11705,7 +11742,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>57</v>
@@ -11746,7 +11783,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>58</v>
@@ -11790,13 +11827,13 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="B43" s="3"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>48</v>
@@ -11837,7 +11874,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>50</v>
@@ -11878,7 +11915,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>49</v>
@@ -11919,7 +11956,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>51</v>
@@ -11960,7 +11997,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>52</v>
@@ -12001,7 +12038,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>53</v>
@@ -12042,7 +12079,7 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>54</v>
@@ -12083,7 +12120,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>59</v>
@@ -12124,7 +12161,7 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>55</v>
@@ -12165,7 +12202,7 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>56</v>
@@ -12206,7 +12243,7 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>57</v>
@@ -12247,7 +12284,7 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>58</v>

--- a/Zadanie 2 - Sprawozdanie/Wyniki.xlsx
+++ b/Zadanie 2 - Sprawozdanie/Wyniki.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="108" windowWidth="22980" windowHeight="9552" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="108" windowWidth="22980" windowHeight="9552" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="_xltb_storage_" sheetId="3" state="veryHidden" r:id="rId1"/>
@@ -16,7 +16,6 @@
     <sheet name="3" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -533,14 +532,14 @@
     <t>Więcej niż 1000 piłkarzy posiadających/będących Młody Wiek mają/są Dobra Prędkość</t>
   </si>
   <si>
-    <t>D:\Nauka\Git\KSR\Zadanie 2 - Sprawozdanie\Rysunki\Badanie13.png</t>
+    <t>D:\Nauka\Git\KSR\Zadanie 2 - Sprawozdanie\Rysunki\Badanie12.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -689,6 +688,15 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -1036,13 +1044,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - akcent 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1494,11 +1503,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="131618816"/>
-        <c:axId val="131362176"/>
+        <c:axId val="167604224"/>
+        <c:axId val="167477248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="131618816"/>
+        <c:axId val="167604224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1545,7 +1554,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131362176"/>
+        <c:crossAx val="167477248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1553,7 +1562,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="131362176"/>
+        <c:axId val="167477248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1600,7 +1609,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131618816"/>
+        <c:crossAx val="167604224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2027,11 +2036,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="174838784"/>
-        <c:axId val="131829120"/>
+        <c:axId val="161348096"/>
+        <c:axId val="167479552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="174838784"/>
+        <c:axId val="161348096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2078,7 +2087,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131829120"/>
+        <c:crossAx val="167479552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2086,7 +2095,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="131829120"/>
+        <c:axId val="167479552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2133,7 +2142,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="174838784"/>
+        <c:crossAx val="161348096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2563,11 +2572,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="131228160"/>
-        <c:axId val="131365632"/>
+        <c:axId val="583927296"/>
+        <c:axId val="167481856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="131228160"/>
+        <c:axId val="583927296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2614,7 +2623,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131365632"/>
+        <c:crossAx val="167481856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2622,7 +2631,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="131365632"/>
+        <c:axId val="167481856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2669,7 +2678,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131228160"/>
+        <c:crossAx val="583927296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2737,6 +2746,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2984,11 +2994,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="147988480"/>
-        <c:axId val="131832576"/>
+        <c:axId val="583856128"/>
+        <c:axId val="167484160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="147988480"/>
+        <c:axId val="583856128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3017,6 +3027,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -3034,7 +3045,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131832576"/>
+        <c:crossAx val="167484160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3042,7 +3053,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="131832576"/>
+        <c:axId val="167484160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3070,6 +3081,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3088,13 +3100,14 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147988480"/>
+        <c:crossAx val="583856128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -3155,6 +3168,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3402,11 +3416,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="129269760"/>
-        <c:axId val="174559168"/>
+        <c:axId val="583857152"/>
+        <c:axId val="583680576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="129269760"/>
+        <c:axId val="583857152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3435,6 +3449,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -3452,7 +3467,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="174559168"/>
+        <c:crossAx val="583680576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3460,7 +3475,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="174559168"/>
+        <c:axId val="583680576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3488,6 +3503,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3506,13 +3522,14 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="129269760"/>
+        <c:crossAx val="583857152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -3582,6 +3599,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3939,11 +3957,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="129271296"/>
-        <c:axId val="174560896"/>
+        <c:axId val="583858688"/>
+        <c:axId val="583682304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="129271296"/>
+        <c:axId val="583858688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3969,6 +3987,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -3986,7 +4005,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="174560896"/>
+        <c:crossAx val="583682304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3994,7 +4013,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="174560896"/>
+        <c:axId val="583682304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4022,6 +4041,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4040,13 +4060,14 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="129271296"/>
+        <c:crossAx val="583858688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4116,6 +4137,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4363,11 +4385,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="129272832"/>
-        <c:axId val="768090688"/>
+        <c:axId val="583859712"/>
+        <c:axId val="583684608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="129272832"/>
+        <c:axId val="583859712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4395,6 +4417,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -4412,7 +4435,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="768090688"/>
+        <c:crossAx val="583684608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4420,7 +4443,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="768090688"/>
+        <c:axId val="583684608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4448,6 +4471,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4466,13 +4490,14 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="129272832"/>
+        <c:crossAx val="583859712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4545,7 +4570,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5027,11 +5051,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="129519616"/>
-        <c:axId val="768092416"/>
+        <c:axId val="587027968"/>
+        <c:axId val="583686336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="129519616"/>
+        <c:axId val="587027968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5057,7 +5081,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5076,7 +5099,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="768092416"/>
+        <c:crossAx val="583686336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5084,7 +5107,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="768092416"/>
+        <c:axId val="583686336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5112,7 +5135,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5131,14 +5153,13 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="129519616"/>
+        <c:crossAx val="587027968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -5211,7 +5232,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5693,11 +5713,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="129521152"/>
-        <c:axId val="768094720"/>
+        <c:axId val="587029504"/>
+        <c:axId val="584163904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="129521152"/>
+        <c:axId val="587029504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5723,7 +5743,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5742,7 +5761,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="768094720"/>
+        <c:crossAx val="584163904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5750,7 +5769,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="768094720"/>
+        <c:axId val="584163904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5778,7 +5797,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5797,7 +5815,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="129521152"/>
+        <c:crossAx val="587029504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5882,15 +5900,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
+      <xdr:colOff>197224</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>69924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>340320</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5597224</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>55200</xdr:rowOff>
+      <xdr:rowOff>64164</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5919,15 +5937,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
+      <xdr:colOff>229944</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>24205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>5925780</xdr:colOff>
+      <xdr:colOff>5629944</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>9480</xdr:rowOff>
+      <xdr:rowOff>18445</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6479,7 +6497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -7026,15 +7044,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="79" customWidth="1"/>
+    <col min="1" max="1" width="84.77734375" customWidth="1"/>
     <col min="2" max="2" width="17.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1" customWidth="1"/>
     <col min="8" max="9" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -7077,7 +7095,7 @@
       <c r="A2" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C2" s="1">
@@ -7118,7 +7136,7 @@
       <c r="A3" t="s">
         <v>144</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C3" s="1">
@@ -7159,7 +7177,7 @@
       <c r="A4" t="s">
         <v>145</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C4" s="1">
@@ -7200,7 +7218,7 @@
       <c r="A5" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C5" s="1">
@@ -7241,7 +7259,7 @@
       <c r="A6" t="s">
         <v>147</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C6" s="1">
@@ -7282,7 +7300,7 @@
       <c r="A7" t="s">
         <v>148</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C7" s="1">
@@ -7323,7 +7341,7 @@
       <c r="A8" t="s">
         <v>149</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C8" s="1">
@@ -7364,7 +7382,7 @@
       <c r="A9" t="s">
         <v>150</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C9" s="1">
@@ -7405,7 +7423,7 @@
       <c r="A10" t="s">
         <v>151</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C10" s="1">
@@ -7446,7 +7464,7 @@
       <c r="A11" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C11" s="1">
@@ -7487,7 +7505,7 @@
       <c r="A12" t="s">
         <v>153</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>57</v>
       </c>
       <c r="C12" s="1">
@@ -7528,7 +7546,7 @@
       <c r="A13" t="s">
         <v>154</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C13" s="1">
@@ -7576,14 +7594,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="87" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" style="1"/>
     <col min="8" max="9" width="8.88671875" style="1"/>
   </cols>
@@ -9233,8 +9251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B13"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9819,85 +9837,85 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="1">
         <v>9.4E-2</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="1">
         <v>0.48199999999999998</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="1">
         <v>0.51800000000000002</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="1">
         <v>0.17799999999999999</v>
       </c>
-      <c r="G17" s="3">
-        <v>1</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
         <v>0.65</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="1">
         <v>0.7</v>
       </c>
-      <c r="J17" s="3">
-        <v>1</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
         <v>0.99399999999999999</v>
       </c>
-      <c r="M17" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="1">
         <v>0.89400000000000002</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="1">
         <v>0.48199999999999998</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="1">
         <v>0.51800000000000002</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="1">
         <v>0.17799999999999999</v>
       </c>
-      <c r="G18" s="3">
-        <v>1</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
         <v>0.8</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="1">
         <v>0.9</v>
       </c>
-      <c r="J18" s="3">
-        <v>1</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
         <v>0.99399999999999999</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="1">
         <v>1</v>
       </c>
     </row>
@@ -10229,44 +10247,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="3">
-        <v>1</v>
-      </c>
-      <c r="D27" s="3">
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
         <v>0.48199999999999998</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="1">
         <v>0.51800000000000002</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="1">
         <v>0.17799999999999999</v>
       </c>
-      <c r="G27" s="3">
-        <v>1</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
         <v>6.2E-2</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="1">
         <v>6.3E-2</v>
       </c>
-      <c r="J27" s="3">
-        <v>1</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
         <v>0.99399999999999999</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27" s="1">
         <v>1</v>
       </c>
     </row>

--- a/Zadanie 2 - Sprawozdanie/Wyniki.xlsx
+++ b/Zadanie 2 - Sprawozdanie/Wyniki.xlsx
@@ -1147,7 +1147,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1503,11 +1502,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="167604224"/>
-        <c:axId val="167477248"/>
+        <c:axId val="599364608"/>
+        <c:axId val="599228416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="167604224"/>
+        <c:axId val="599364608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1536,7 +1535,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -1554,7 +1552,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="167477248"/>
+        <c:crossAx val="599228416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1562,7 +1560,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="167477248"/>
+        <c:axId val="599228416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1590,7 +1588,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1609,14 +1606,13 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="167604224"/>
+        <c:crossAx val="599364608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1680,7 +1676,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2036,11 +2031,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="161348096"/>
-        <c:axId val="167479552"/>
+        <c:axId val="137228800"/>
+        <c:axId val="599230720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="161348096"/>
+        <c:axId val="137228800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2069,7 +2064,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -2087,7 +2081,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="167479552"/>
+        <c:crossAx val="599230720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2095,7 +2089,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="167479552"/>
+        <c:axId val="599230720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2123,7 +2117,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2142,14 +2135,13 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161348096"/>
+        <c:crossAx val="137228800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -2216,7 +2208,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2572,11 +2563,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="583927296"/>
-        <c:axId val="167481856"/>
+        <c:axId val="600500224"/>
+        <c:axId val="599233024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="583927296"/>
+        <c:axId val="600500224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2605,7 +2596,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -2623,7 +2613,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="167481856"/>
+        <c:crossAx val="599233024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2631,7 +2621,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="167481856"/>
+        <c:axId val="599233024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2659,7 +2649,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2678,14 +2667,13 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="583927296"/>
+        <c:crossAx val="600500224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -2782,9 +2770,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'2.1'!$C$1:$M$1</c:f>
+              <c:f>'2.1'!$C$1:$J$1</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>T1</c:v>
                 </c:pt>
@@ -2808,25 +2796,16 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>T8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>T9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>T10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>T11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.1'!$C$6:$M$6</c:f>
+              <c:f>'2.1'!$C$6:$J$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.58399999999999996</c:v>
                 </c:pt>
@@ -2850,15 +2829,6 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.92800000000000005</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2901,9 +2871,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'2.1'!$C$1:$M$1</c:f>
+              <c:f>'2.1'!$C$1:$J$1</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>T1</c:v>
                 </c:pt>
@@ -2927,25 +2897,16 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>T8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>T9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>T10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>T11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.1'!$C$20:$M$20</c:f>
+              <c:f>'2.1'!$C$20:$J$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.53700000000000003</c:v>
                 </c:pt>
@@ -2969,15 +2930,6 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.99399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2994,11 +2946,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="583856128"/>
-        <c:axId val="167484160"/>
+        <c:axId val="599366144"/>
+        <c:axId val="599235328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="583856128"/>
+        <c:axId val="599366144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3045,7 +2997,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="167484160"/>
+        <c:crossAx val="599235328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3053,7 +3005,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="167484160"/>
+        <c:axId val="599235328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3100,7 +3052,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="583856128"/>
+        <c:crossAx val="599366144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3204,9 +3156,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'2.1'!$C$1:$M$1</c:f>
+              <c:f>'2.1'!$C$1:$J$1</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>T1</c:v>
                 </c:pt>
@@ -3230,25 +3182,16 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>T8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>T9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>T10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>T11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.1'!$C$11:$M$11</c:f>
+              <c:f>'2.1'!$C$11:$J$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>8.5000000000000006E-2</c:v>
                 </c:pt>
@@ -3272,15 +3215,6 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.92800000000000005</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3323,9 +3257,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'2.1'!$C$1:$M$1</c:f>
+              <c:f>'2.1'!$C$1:$J$1</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>T1</c:v>
                 </c:pt>
@@ -3349,25 +3283,16 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>T8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>T9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>T10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>T11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.1'!$C$27:$M$27</c:f>
+              <c:f>'2.1'!$C$27:$J$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3391,15 +3316,6 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.99399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3416,11 +3332,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="583857152"/>
-        <c:axId val="583680576"/>
+        <c:axId val="600692224"/>
+        <c:axId val="600588864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="583857152"/>
+        <c:axId val="600692224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3467,7 +3383,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="583680576"/>
+        <c:crossAx val="600588864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3475,7 +3391,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="583680576"/>
+        <c:axId val="600588864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3522,7 +3438,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="583857152"/>
+        <c:crossAx val="600692224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3635,9 +3551,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'2.2'!$C$1:$M$1</c:f>
+              <c:f>'2.2'!$C$1:$J$1</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>T1</c:v>
                 </c:pt>
@@ -3661,25 +3577,16 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>T8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>T9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>T10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>T11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.2'!$C$3:$M$3</c:f>
+              <c:f>'2.2'!$C$3:$J$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3702,15 +3609,6 @@
                   <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.96599999999999997</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -3745,9 +3643,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'2.2'!$C$1:$M$1</c:f>
+              <c:f>'2.2'!$C$1:$J$1</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>T1</c:v>
                 </c:pt>
@@ -3771,25 +3669,16 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>T8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>T9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>T10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>T11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.2'!$C$17:$M$17</c:f>
+              <c:f>'2.2'!$C$17:$J$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>9.4E-2</c:v>
                 </c:pt>
@@ -3812,15 +3701,6 @@
                   <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.99399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -3864,9 +3744,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'2.2'!$C$1:$M$1</c:f>
+              <c:f>'2.2'!$C$1:$J$1</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>T1</c:v>
                 </c:pt>
@@ -3890,25 +3770,16 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>T8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>T9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>T10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>T11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.2'!$C$18:$M$18</c:f>
+              <c:f>'2.2'!$C$18:$J$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.89400000000000002</c:v>
                 </c:pt>
@@ -3931,15 +3802,6 @@
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.99399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -3957,11 +3819,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="583858688"/>
-        <c:axId val="583682304"/>
+        <c:axId val="600694272"/>
+        <c:axId val="600590592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="583858688"/>
+        <c:axId val="600694272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4005,7 +3867,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="583682304"/>
+        <c:crossAx val="600590592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4013,7 +3875,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="583682304"/>
+        <c:axId val="600590592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4060,7 +3922,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="583858688"/>
+        <c:crossAx val="600694272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4173,9 +4035,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'2.2'!$C$1:$M$1</c:f>
+              <c:f>'2.2'!$C$1:$J$1</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>T1</c:v>
                 </c:pt>
@@ -4199,25 +4061,16 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>T8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>T9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>T10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>T11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.2'!$C$9:$M$9</c:f>
+              <c:f>'2.2'!$C$9:$J$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4240,15 +4093,6 @@
                   <c:v>0.99199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.96599999999999997</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -4292,9 +4136,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'2.2'!$C$1:$M$1</c:f>
+              <c:f>'2.2'!$C$1:$J$1</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>T1</c:v>
                 </c:pt>
@@ -4318,25 +4162,16 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>T8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>T9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>T10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>T11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.2'!$C$27:$M$27</c:f>
+              <c:f>'2.2'!$C$27:$J$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4359,15 +4194,6 @@
                   <c:v>6.3E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.99399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -4385,11 +4211,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="583859712"/>
-        <c:axId val="583684608"/>
+        <c:axId val="601232384"/>
+        <c:axId val="600592896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="583859712"/>
+        <c:axId val="601232384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4435,7 +4261,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="583684608"/>
+        <c:crossAx val="600592896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4443,7 +4269,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="583684608"/>
+        <c:axId val="600592896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4490,7 +4316,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="583859712"/>
+        <c:crossAx val="601232384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5051,11 +4877,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="587027968"/>
-        <c:axId val="583686336"/>
+        <c:axId val="601233408"/>
+        <c:axId val="600594624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="587027968"/>
+        <c:axId val="601233408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5099,7 +4925,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="583686336"/>
+        <c:crossAx val="600594624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5107,7 +4933,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="583686336"/>
+        <c:axId val="600594624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5153,7 +4979,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="587027968"/>
+        <c:crossAx val="601233408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5713,11 +5539,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="587029504"/>
-        <c:axId val="584163904"/>
+        <c:axId val="601165824"/>
+        <c:axId val="601006656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="587029504"/>
+        <c:axId val="601165824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5761,7 +5587,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584163904"/>
+        <c:crossAx val="601006656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5769,7 +5595,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="584163904"/>
+        <c:axId val="601006656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5815,7 +5641,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="587029504"/>
+        <c:crossAx val="601165824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8203,7 +8029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
@@ -9251,8 +9077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Zadanie 2 - Sprawozdanie/Wyniki.xlsx
+++ b/Zadanie 2 - Sprawozdanie/Wyniki.xlsx
@@ -532,7 +532,7 @@
     <t>Więcej niż 1000 piłkarzy posiadających/będących Młody Wiek mają/są Dobra Prędkość</t>
   </si>
   <si>
-    <t>D:\Nauka\Git\KSR\Zadanie 2 - Sprawozdanie\Rysunki\Badanie12.png</t>
+    <t>D:\Nauka\Git\KSR\Zadanie 2 - Sprawozdanie\Rysunki\Badanie212.png</t>
   </si>
 </sst>
 </file>
@@ -8029,8 +8029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K16:M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8605,15 +8605,6 @@
       <c r="J16">
         <v>0.999</v>
       </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -8646,15 +8637,6 @@
       <c r="J17">
         <v>0.999</v>
       </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -8687,15 +8669,6 @@
       <c r="J18">
         <v>0.999</v>
       </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -8728,15 +8701,6 @@
       <c r="J19">
         <v>0.999</v>
       </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
@@ -8769,15 +8733,9 @@
       <c r="J20" s="1">
         <v>0.999</v>
       </c>
-      <c r="K20" s="1">
-        <v>0</v>
-      </c>
-      <c r="L20" s="1">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="M20" s="1">
-        <v>1</v>
-      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -8810,15 +8768,6 @@
       <c r="J21">
         <v>0.999</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -8851,15 +8800,6 @@
       <c r="J22">
         <v>0.999</v>
       </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -8892,15 +8832,6 @@
       <c r="J23">
         <v>0.999</v>
       </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="M23">
-        <v>1</v>
-      </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -8933,15 +8864,6 @@
       <c r="J24">
         <v>0.999</v>
       </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="M24">
-        <v>1</v>
-      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
@@ -8974,15 +8896,9 @@
       <c r="J25" s="3">
         <v>0.999</v>
       </c>
-      <c r="K25" s="3">
-        <v>0</v>
-      </c>
-      <c r="L25" s="3">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="M25" s="3">
-        <v>1</v>
-      </c>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -9015,15 +8931,6 @@
       <c r="J26">
         <v>0.999</v>
       </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
@@ -9056,15 +8963,9 @@
       <c r="J27" s="1">
         <v>0.999</v>
       </c>
-      <c r="K27" s="1">
-        <v>0</v>
-      </c>
-      <c r="L27" s="1">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="M27" s="1">
-        <v>1</v>
-      </c>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9077,8 +8978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9653,17 +9554,8 @@
       <c r="J16">
         <v>1</v>
       </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
@@ -9694,17 +9586,8 @@
       <c r="J17" s="1">
         <v>1</v>
       </c>
-      <c r="K17" s="1">
-        <v>0</v>
-      </c>
-      <c r="L17" s="1">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="M17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -9735,17 +9618,8 @@
       <c r="J18" s="1">
         <v>1</v>
       </c>
-      <c r="K18" s="1">
-        <v>0</v>
-      </c>
-      <c r="L18" s="1">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="M18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -9776,17 +9650,8 @@
       <c r="J19">
         <v>1</v>
       </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -9817,17 +9682,8 @@
       <c r="J20">
         <v>1</v>
       </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -9858,17 +9714,8 @@
       <c r="J21">
         <v>1</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -9899,17 +9746,8 @@
       <c r="J22">
         <v>1</v>
       </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -9940,17 +9778,8 @@
       <c r="J23">
         <v>1</v>
       </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="M23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -9981,17 +9810,8 @@
       <c r="J24">
         <v>1</v>
       </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="M24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -10022,17 +9842,8 @@
       <c r="J25">
         <v>1</v>
       </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -10063,17 +9874,8 @@
       <c r="J26">
         <v>1</v>
       </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>47</v>
       </c>
@@ -10102,15 +9904,6 @@
         <v>6.3E-2</v>
       </c>
       <c r="J27" s="1">
-        <v>1</v>
-      </c>
-      <c r="K27" s="1">
-        <v>0</v>
-      </c>
-      <c r="L27" s="1">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="M27" s="1">
         <v>1</v>
       </c>
     </row>

--- a/Zadanie 2 - Sprawozdanie/Wyniki.xlsx
+++ b/Zadanie 2 - Sprawozdanie/Wyniki.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="108" windowWidth="22980" windowHeight="9552" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="108" windowWidth="22980" windowHeight="9552" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="_xltb_storage_" sheetId="3" state="veryHidden" r:id="rId1"/>
@@ -532,7 +532,7 @@
     <t>Więcej niż 1000 piłkarzy posiadających/będących Młody Wiek mają/są Dobra Prędkość</t>
   </si>
   <si>
-    <t>D:\Nauka\Git\KSR\Zadanie 2 - Sprawozdanie\Rysunki\Badanie212.png</t>
+    <t>D:\Nauka\Git\KSR\Zadanie 2 - Sprawozdanie\Rysunki\Badanie32.png</t>
   </si>
 </sst>
 </file>
@@ -4396,6 +4396,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4712,7 +4713,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4833,7 +4834,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.23300000000000001</c:v>
@@ -4907,6 +4908,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4961,6 +4963,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4986,6 +4989,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -5058,6 +5062,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5374,7 +5379,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -5495,7 +5500,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.23300000000000001</c:v>
@@ -5569,6 +5574,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5623,6 +5629,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -8978,8 +8985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A7:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9917,8 +9924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="M12" sqref="A12:M12"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10978,7 +10985,7 @@
         <v>0.999</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -11019,7 +11026,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="1">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
@@ -11060,7 +11067,7 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -11101,7 +11108,7 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -11142,7 +11149,7 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -11183,7 +11190,7 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -11224,7 +11231,7 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -11265,7 +11272,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="1">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="E37" s="1">
         <v>0</v>
@@ -11306,7 +11313,7 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -11347,7 +11354,7 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -11388,7 +11395,7 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -11429,7 +11436,7 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -11479,7 +11486,7 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="E44">
         <v>0.23300000000000001</v>
@@ -11520,7 +11527,7 @@
         <v>1</v>
       </c>
       <c r="D45" s="1">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="E45" s="1">
         <v>0.23300000000000001</v>
@@ -11561,7 +11568,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="E46">
         <v>0.23300000000000001</v>
@@ -11602,7 +11609,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="E47">
         <v>0.23300000000000001</v>
@@ -11643,7 +11650,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="E48">
         <v>0.23300000000000001</v>
@@ -11684,7 +11691,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="E49">
         <v>0.23300000000000001</v>
@@ -11725,7 +11732,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="E50">
         <v>0.23300000000000001</v>
@@ -11766,7 +11773,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="E51">
         <v>0.23300000000000001</v>
@@ -11807,7 +11814,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="E52">
         <v>0.23300000000000001</v>
@@ -11848,7 +11855,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="E53">
         <v>0.23300000000000001</v>
@@ -11889,7 +11896,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="E54">
         <v>0.23300000000000001</v>
@@ -11930,7 +11937,7 @@
         <v>1</v>
       </c>
       <c r="D55" s="1">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="E55" s="1">
         <v>0.23300000000000001</v>
@@ -11962,6 +11969,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Zadanie 2 - Sprawozdanie/Wyniki.xlsx
+++ b/Zadanie 2 - Sprawozdanie/Wyniki.xlsx
@@ -9924,8 +9924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Zadanie 2 - Sprawozdanie/Wyniki.xlsx
+++ b/Zadanie 2 - Sprawozdanie/Wyniki.xlsx
@@ -1502,11 +1502,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="599364608"/>
-        <c:axId val="599228416"/>
+        <c:axId val="612876288"/>
+        <c:axId val="612728832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="599364608"/>
+        <c:axId val="612876288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1552,7 +1552,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="599228416"/>
+        <c:crossAx val="612728832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1560,7 +1560,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="599228416"/>
+        <c:axId val="612728832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1606,7 +1606,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="599364608"/>
+        <c:crossAx val="612876288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2031,11 +2031,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="137228800"/>
-        <c:axId val="599230720"/>
+        <c:axId val="607390208"/>
+        <c:axId val="612731136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="137228800"/>
+        <c:axId val="607390208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2081,7 +2081,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="599230720"/>
+        <c:crossAx val="612731136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2089,7 +2089,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="599230720"/>
+        <c:axId val="612731136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2135,7 +2135,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137228800"/>
+        <c:crossAx val="607390208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2563,11 +2563,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="600500224"/>
-        <c:axId val="599233024"/>
+        <c:axId val="644625920"/>
+        <c:axId val="612733440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="600500224"/>
+        <c:axId val="644625920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2613,7 +2613,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="599233024"/>
+        <c:crossAx val="612733440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2621,7 +2621,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="599233024"/>
+        <c:axId val="612733440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2667,7 +2667,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="600500224"/>
+        <c:crossAx val="644625920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2734,7 +2734,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2946,11 +2945,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="599366144"/>
-        <c:axId val="599235328"/>
+        <c:axId val="644624384"/>
+        <c:axId val="612735744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="599366144"/>
+        <c:axId val="644624384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2979,7 +2978,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -2997,7 +2995,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="599235328"/>
+        <c:crossAx val="612735744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3005,7 +3003,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="599235328"/>
+        <c:axId val="612735744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3033,7 +3031,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3052,14 +3049,13 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="599366144"/>
+        <c:crossAx val="644624384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -3120,7 +3116,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3332,11 +3327,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="600692224"/>
-        <c:axId val="600588864"/>
+        <c:axId val="644874752"/>
+        <c:axId val="644760128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="600692224"/>
+        <c:axId val="644874752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3365,7 +3360,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -3383,7 +3377,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="600588864"/>
+        <c:crossAx val="644760128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3391,7 +3385,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="600588864"/>
+        <c:axId val="644760128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3419,7 +3413,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3438,14 +3431,13 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="600692224"/>
+        <c:crossAx val="644874752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -3515,7 +3507,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3819,11 +3810,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="600694272"/>
-        <c:axId val="600590592"/>
+        <c:axId val="644876288"/>
+        <c:axId val="644761856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="600694272"/>
+        <c:axId val="644876288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3849,7 +3840,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -3867,7 +3857,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="600590592"/>
+        <c:crossAx val="644761856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3875,7 +3865,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="600590592"/>
+        <c:axId val="644761856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3903,7 +3893,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3922,14 +3911,13 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="600694272"/>
+        <c:crossAx val="644876288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -3999,7 +3987,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4211,11 +4198,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="601232384"/>
-        <c:axId val="600592896"/>
+        <c:axId val="644877824"/>
+        <c:axId val="644764160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="601232384"/>
+        <c:axId val="644877824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4243,7 +4230,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -4261,7 +4247,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="600592896"/>
+        <c:crossAx val="644764160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4269,7 +4255,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="600592896"/>
+        <c:axId val="644764160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4297,7 +4283,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4316,14 +4301,13 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="601232384"/>
+        <c:crossAx val="644877824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4840,7 +4824,7 @@
                   <c:v>0.23300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7E-2</c:v>
+                  <c:v>0.22900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
@@ -4878,11 +4862,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="601233408"/>
-        <c:axId val="600594624"/>
+        <c:axId val="645092864"/>
+        <c:axId val="644765888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="601233408"/>
+        <c:axId val="645092864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4927,7 +4911,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="600594624"/>
+        <c:crossAx val="644765888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4935,7 +4919,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="600594624"/>
+        <c:axId val="644765888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4982,7 +4966,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="601233408"/>
+        <c:crossAx val="645092864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5506,7 +5490,7 @@
                   <c:v>0.23300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7E-2</c:v>
+                  <c:v>0.22900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
@@ -5544,11 +5528,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="601165824"/>
-        <c:axId val="601006656"/>
+        <c:axId val="645094400"/>
+        <c:axId val="645177920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="601165824"/>
+        <c:axId val="645094400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5593,7 +5577,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="601006656"/>
+        <c:crossAx val="645177920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5601,7 +5585,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="601006656"/>
+        <c:axId val="645177920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5648,7 +5632,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="601165824"/>
+        <c:crossAx val="645094400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9924,8 +9908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11492,7 +11476,7 @@
         <v>0.23300000000000001</v>
       </c>
       <c r="F44">
-        <v>2.7E-2</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="G44">
         <v>0.5</v>
@@ -11533,7 +11517,7 @@
         <v>0.23300000000000001</v>
       </c>
       <c r="F45" s="1">
-        <v>2.7E-2</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="G45" s="1">
         <v>0.5</v>
@@ -11574,7 +11558,7 @@
         <v>0.23300000000000001</v>
       </c>
       <c r="F46">
-        <v>2.7E-2</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="G46">
         <v>0.5</v>
@@ -11615,7 +11599,7 @@
         <v>0.23300000000000001</v>
       </c>
       <c r="F47">
-        <v>2.7E-2</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="G47">
         <v>0.5</v>
@@ -11656,7 +11640,7 @@
         <v>0.23300000000000001</v>
       </c>
       <c r="F48">
-        <v>2.7E-2</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="G48">
         <v>0.5</v>
@@ -11697,7 +11681,7 @@
         <v>0.23300000000000001</v>
       </c>
       <c r="F49">
-        <v>2.7E-2</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="G49">
         <v>0.5</v>
@@ -11738,7 +11722,7 @@
         <v>0.23300000000000001</v>
       </c>
       <c r="F50">
-        <v>2.7E-2</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="G50">
         <v>0.5</v>
@@ -11779,7 +11763,7 @@
         <v>0.23300000000000001</v>
       </c>
       <c r="F51">
-        <v>2.7E-2</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="G51">
         <v>0.5</v>
@@ -11820,7 +11804,7 @@
         <v>0.23300000000000001</v>
       </c>
       <c r="F52">
-        <v>2.7E-2</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="G52">
         <v>0.5</v>
@@ -11861,7 +11845,7 @@
         <v>0.23300000000000001</v>
       </c>
       <c r="F53">
-        <v>2.7E-2</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="G53">
         <v>0.5</v>
@@ -11902,7 +11886,7 @@
         <v>0.23300000000000001</v>
       </c>
       <c r="F54">
-        <v>2.7E-2</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="G54">
         <v>0.5</v>
@@ -11943,7 +11927,7 @@
         <v>0.23300000000000001</v>
       </c>
       <c r="F55" s="1">
-        <v>2.7E-2</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="G55" s="1">
         <v>0.5</v>
